--- a/FinacialStatementSamples.xlsx
+++ b/FinacialStatementSamples.xlsx
@@ -15,6 +15,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,6 +39,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>palance:</t>
         </r>
@@ -46,6 +48,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -70,6 +73,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>palance:</t>
         </r>
@@ -78,6 +82,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -103,6 +108,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>palance:</t>
         </r>
@@ -111,6 +117,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -136,6 +143,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>palance:</t>
         </r>
@@ -144,6 +152,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -169,23 +178,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业可以在一年或者超过一年的一个营业周期内变现或者运用的资产</t>
         </r>
@@ -199,23 +211,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>在一份资产负债表中，一年内或者超过一年的一个营业周期内需要偿还的债务合计。流动负债主要包括短期借款、应付票据、应付账款、预收账款、应付工资、应付福利费、应付股利、应交税金、其它暂收应付款项、预提费用和一年内到期的长期借贷等。</t>
         </r>
@@ -229,23 +244,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业可以在一年或者超过一年的一个营业周期内变现或者运用的资产</t>
         </r>
@@ -259,23 +277,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>在一份资产负债表中，一年内或者超过一年的一个营业周期内需要偿还的债务合计。流动负债主要包括短期借款、应付票据、应付账款、预收账款、应付工资、应付福利费、应付股利、应交税金、其它暂收应付款项、预提费用和一年内到期的长期借贷等。</t>
         </r>
@@ -289,23 +310,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业可以在一年或者超过一年的一个营业周期内变现或者运用的资产</t>
         </r>
@@ -319,23 +343,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>在一份资产负债表中，一年内或者超过一年的一个营业周期内需要偿还的债务合计。流动负债主要包括短期借款、应付票据、应付账款、预收账款、应付工资、应付福利费、应付股利、应交税金、其它暂收应付款项、预提费用和一年内到期的长期借贷等。</t>
         </r>
@@ -349,23 +376,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业可以在一年或者超过一年的一个营业周期内变现或者运用的资产</t>
         </r>
@@ -379,23 +409,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>在一份资产负债表中，一年内或者超过一年的一个营业周期内需要偿还的债务合计。流动负债主要包括短期借款、应付票据、应付账款、预收账款、应付工资、应付福利费、应付股利、应交税金、其它暂收应付款项、预提费用和一年内到期的长期借贷等。</t>
         </r>
@@ -409,23 +442,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>包括库存现金、银行存款和其他货币资金三个项目的期末余额，具有专门用途的货币资金不包括在内。</t>
         </r>
@@ -439,6 +475,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>palance:</t>
         </r>
@@ -447,15 +484,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业用来维持正常的生产经营所需的资金或为抵偿某项债务而向银行或其它金融机构等外单位借入的、还款期限在一年以下或者一年的一个经营周期内的各种借款。</t>
         </r>
@@ -469,23 +508,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>包括库存现金、银行存款和其他货币资金三个项目的期末余额，具有专门用途的货币资金不包括在内。</t>
         </r>
@@ -499,6 +541,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>palance:</t>
         </r>
@@ -507,15 +550,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业用来维持正常的生产经营所需的资金或为抵偿某项债务而向银行或其它金融机构等外单位借入的、还款期限在一年以下或者一年的一个经营周期内的各种借款。</t>
         </r>
@@ -529,23 +574,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>包括库存现金、银行存款和其他货币资金三个项目的期末余额，具有专门用途的货币资金不包括在内。</t>
         </r>
@@ -559,6 +607,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>palance:</t>
         </r>
@@ -567,15 +616,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业用来维持正常的生产经营所需的资金或为抵偿某项债务而向银行或其它金融机构等外单位借入的、还款期限在一年以下或者一年的一个经营周期内的各种借款。</t>
         </r>
@@ -589,23 +640,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>包括库存现金、银行存款和其他货币资金三个项目的期末余额，具有专门用途的货币资金不包括在内。</t>
         </r>
@@ -619,6 +673,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>palance:</t>
         </r>
@@ -627,15 +682,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业用来维持正常的生产经营所需的资金或为抵偿某项债务而向银行或其它金融机构等外单位借入的、还款期限在一年以下或者一年的一个经营周期内的各种借款。</t>
         </r>
@@ -649,23 +706,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>核算企业因销售商品、提供劳务等经营活动应收取的款项</t>
         </r>
@@ -679,23 +739,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业因购买材料、物资和接受劳务供应等而应该付给供货单位的账款。</t>
         </r>
@@ -709,23 +772,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>核算企业因销售商品、提供劳务等经营活动应收取的款项</t>
         </r>
@@ -739,23 +805,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业因购买材料、物资和接受劳务供应等而应该付给供货单位的账款。</t>
         </r>
@@ -769,23 +838,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>核算企业因销售商品、提供劳务等经营活动应收取的款项</t>
         </r>
@@ -799,23 +871,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业因购买材料、物资和接受劳务供应等而应该付给供货单位的账款。</t>
         </r>
@@ -829,23 +904,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>核算企业因销售商品、提供劳务等经营活动应收取的款项</t>
         </r>
@@ -859,23 +937,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业因购买材料、物资和接受劳务供应等而应该付给供货单位的账款。</t>
         </r>
@@ -889,23 +970,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业除存出保证金（如租房子时缴付的未来将退回的保证金、押金等）、买入返售金融资产、应收票据、应收账款、预付账款、应收股利、应收利息、应收代位追偿款、应收分保账款、应收分包合同准备金、长期应收款等以外的其他各种应收及暂付款项。</t>
         </r>
@@ -919,14 +1003,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -962,23 +1048,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业除存出保证金（如租房子时缴付的未来将退回的保证金、押金等）、买入返售金融资产、应收票据、应收账款、预付账款、应收股利、应收利息、应收代位追偿款、应收分保账款、应收分包合同准备金、长期应收款等以外的其他各种应收及暂付款项。</t>
         </r>
@@ -992,14 +1081,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1035,23 +1126,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业除存出保证金（如租房子时缴付的未来将退回的保证金、押金等）、买入返售金融资产、应收票据、应收账款、预付账款、应收股利、应收利息、应收代位追偿款、应收分保账款、应收分包合同准备金、长期应收款等以外的其他各种应收及暂付款项。</t>
         </r>
@@ -1065,14 +1159,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1108,23 +1204,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业除存出保证金（如租房子时缴付的未来将退回的保证金、押金等）、买入返售金融资产、应收票据、应收账款、预付账款、应收股利、应收利息、应收代位追偿款、应收分保账款、应收分包合同准备金、长期应收款等以外的其他各种应收及暂付款项。</t>
         </r>
@@ -1138,14 +1237,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1181,23 +1282,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业按照合同规定预付的款项</t>
         </r>
@@ -1211,23 +1315,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>买卖双方协议商定，由购货方预先支付一部分货款给供应方而发生的一项负债。</t>
         </r>
@@ -1241,23 +1348,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业按照合同规定预付的款项</t>
         </r>
@@ -1271,23 +1381,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>买卖双方协议商定，由购货方预先支付一部分货款给供应方而发生的一项负债。</t>
         </r>
@@ -1301,23 +1414,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业按照合同规定预付的款项</t>
         </r>
@@ -1331,23 +1447,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>买卖双方协议商定，由购货方预先支付一部分货款给供应方而发生的一项负债。</t>
         </r>
@@ -1361,23 +1480,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业按照合同规定预付的款项</t>
         </r>
@@ -1391,23 +1513,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>买卖双方协议商定，由购货方预先支付一部分货款给供应方而发生的一项负债。</t>
         </r>
@@ -1421,23 +1546,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>包括在产品、产成品和存货</t>
         </r>
@@ -1451,23 +1579,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>包括在产品、产成品和存货</t>
         </r>
@@ -1481,23 +1612,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>包括在产品、产成品和存货</t>
         </r>
@@ -1511,23 +1645,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>包括在产品、产成品和存货</t>
         </r>
@@ -1541,23 +1678,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>如预付房租、预付广告费用、预付办公用品等</t>
         </r>
@@ -1571,23 +1711,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>如预付房租、预付广告费用、预付办公用品等</t>
         </r>
@@ -1601,23 +1744,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>如预付房租、预付广告费用、预付办公用品等</t>
         </r>
@@ -1631,23 +1777,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>如预付房租、预付广告费用、预付办公用品等</t>
         </r>
@@ -1661,23 +1810,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>流动资产以外的资产，包括长期投资、固定资产、无形资产等</t>
         </r>
@@ -1691,23 +1843,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>偿还期在一年或超过一年的一个营业周期以上的债务。非流动负债的主要项目有长期借贷、应付债券和长期应付款等。</t>
         </r>
@@ -1721,23 +1876,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>流动资产以外的资产，包括长期投资、固定资产、无形资产等</t>
         </r>
@@ -1751,23 +1909,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>偿还期在一年或超过一年的一个营业周期以上的债务。非流动负债的主要项目有长期借贷、应付债券和长期应付款等。</t>
         </r>
@@ -1781,23 +1942,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>流动资产以外的资产，包括长期投资、固定资产、无形资产等</t>
         </r>
@@ -1811,23 +1975,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>偿还期在一年或超过一年的一个营业周期以上的债务。非流动负债的主要项目有长期借贷、应付债券和长期应付款等。</t>
         </r>
@@ -1841,23 +2008,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>流动资产以外的资产，包括长期投资、固定资产、无形资产等</t>
         </r>
@@ -1871,23 +2041,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>偿还期在一年或超过一年的一个营业周期以上的债务。非流动负债的主要项目有长期借贷、应付债券和长期应付款等。</t>
         </r>
@@ -1901,23 +2074,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>不满足短期投资条件的投资，既不准备在一年或长于一年的经营周期内转变为现金的投资。长期投资按其性质分为长期股票投资、长期债权投资和其他长期投资。</t>
         </r>
@@ -1931,6 +2107,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>palance:</t>
         </r>
@@ -1939,15 +2116,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业从银行或其他金融机构借入的期限在一年以上的借款。</t>
         </r>
@@ -1961,23 +2140,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>不满足短期投资条件的投资，既不准备在一年或长于一年的经营周期内转变为现金的投资。长期投资按其性质分为长期股票投资、长期债权投资和其他长期投资。</t>
         </r>
@@ -1991,6 +2173,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>palance:</t>
         </r>
@@ -1999,15 +2182,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业从银行或其他金融机构借入的期限在一年以上的借款。</t>
         </r>
@@ -2021,23 +2206,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>不满足短期投资条件的投资，既不准备在一年或长于一年的经营周期内转变为现金的投资。长期投资按其性质分为长期股票投资、长期债权投资和其他长期投资。</t>
         </r>
@@ -2051,6 +2239,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>palance:</t>
         </r>
@@ -2059,15 +2248,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业从银行或其他金融机构借入的期限在一年以上的借款。</t>
         </r>
@@ -2081,23 +2272,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>不满足短期投资条件的投资，既不准备在一年或长于一年的经营周期内转变为现金的投资。长期投资按其性质分为长期股票投资、长期债权投资和其他长期投资。</t>
         </r>
@@ -2111,6 +2305,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>palance:</t>
         </r>
@@ -2119,15 +2314,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业从银行或其他金融机构借入的期限在一年以上的借款。</t>
         </r>
@@ -2141,23 +2338,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>同时具有下列特征的有形资产：（</t>
         </r>
@@ -2166,6 +2366,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -2174,6 +2375,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>）为生产商品、提供劳务、出租或经营管理而持有的；（</t>
         </r>
@@ -2182,6 +2384,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -2190,6 +2393,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>）使用寿命超过一个会计年度</t>
         </r>
@@ -2198,6 +2402,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>。</t>
         </r>
@@ -2206,24 +2411,27 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>历史成本</t>
         </r>
@@ -2232,6 +2440,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>/</t>
         </r>
@@ -2240,6 +2449,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>原始成本</t>
         </r>
@@ -2248,6 +2458,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>/</t>
         </r>
@@ -2256,6 +2467,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>实际成本：资产在其取得时为他所支付的现金或现金等价物的金额。负债在正常经营活动中为交换而收到的或未偿付将要支付的现金或现金等价物的金额。</t>
         </r>
@@ -2264,24 +2476,27 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>金融资产：金融资产通常指企业的库存现金、银行存款、其他货币基金、应收账款、应收票据、贷款、其他应收款、股权投资、债权投资和衍生金融工具形成的资产。</t>
         </r>
@@ -2295,23 +2510,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业为筹集资金而对外发行的期限在一年以上的长期借贷款性质的书面证明，约定在一定期限内还本付息的一种书面承诺。</t>
         </r>
@@ -2325,23 +2543,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>同时具有下列特征的有形资产：（</t>
         </r>
@@ -2350,6 +2571,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -2358,6 +2580,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>）为生产商品、提供劳务、出租或经营管理而持有的；（</t>
         </r>
@@ -2366,6 +2589,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -2374,6 +2598,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>）使用寿命超过一个会计年度</t>
         </r>
@@ -2382,6 +2607,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>。</t>
         </r>
@@ -2390,24 +2616,27 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>历史成本</t>
         </r>
@@ -2416,6 +2645,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>/</t>
         </r>
@@ -2424,6 +2654,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>原始成本</t>
         </r>
@@ -2432,6 +2663,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>/</t>
         </r>
@@ -2440,6 +2672,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>实际成本：资产在其取得时为他所支付的现金或现金等价物的金额。负债在正常经营活动中为交换而收到的或未偿付将要支付的现金或现金等价物的金额。</t>
         </r>
@@ -2448,24 +2681,27 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>金融资产：金融资产通常指企业的库存现金、银行存款、其他货币基金、应收账款、应收票据、贷款、其他应收款、股权投资、债权投资和衍生金融工具形成的资产。</t>
         </r>
@@ -2479,23 +2715,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业为筹集资金而对外发行的期限在一年以上的长期借贷款性质的书面证明，约定在一定期限内还本付息的一种书面承诺。</t>
         </r>
@@ -2509,23 +2748,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>同时具有下列特征的有形资产：（</t>
         </r>
@@ -2534,6 +2776,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -2542,6 +2785,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>）为生产商品、提供劳务、出租或经营管理而持有的；（</t>
         </r>
@@ -2550,6 +2794,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -2558,6 +2803,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>）使用寿命超过一个会计年度</t>
         </r>
@@ -2566,6 +2812,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>。</t>
         </r>
@@ -2574,24 +2821,27 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>历史成本</t>
         </r>
@@ -2600,6 +2850,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>/</t>
         </r>
@@ -2608,6 +2859,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>原始成本</t>
         </r>
@@ -2616,6 +2868,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>/</t>
         </r>
@@ -2624,6 +2877,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>实际成本：资产在其取得时为他所支付的现金或现金等价物的金额。负债在正常经营活动中为交换而收到的或未偿付将要支付的现金或现金等价物的金额。</t>
         </r>
@@ -2632,24 +2886,27 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>金融资产：金融资产通常指企业的库存现金、银行存款、其他货币基金、应收账款、应收票据、贷款、其他应收款、股权投资、债权投资和衍生金融工具形成的资产。</t>
         </r>
@@ -2663,23 +2920,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业为筹集资金而对外发行的期限在一年以上的长期借贷款性质的书面证明，约定在一定期限内还本付息的一种书面承诺。</t>
         </r>
@@ -2693,23 +2953,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>同时具有下列特征的有形资产：（</t>
         </r>
@@ -2718,6 +2981,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -2726,6 +2990,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>）为生产商品、提供劳务、出租或经营管理而持有的；（</t>
         </r>
@@ -2734,6 +2999,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -2742,6 +3008,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>）使用寿命超过一个会计年度</t>
         </r>
@@ -2750,6 +3017,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>。</t>
         </r>
@@ -2758,24 +3026,27 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>历史成本</t>
         </r>
@@ -2784,6 +3055,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>/</t>
         </r>
@@ -2792,6 +3064,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>原始成本</t>
         </r>
@@ -2800,6 +3073,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>/</t>
         </r>
@@ -2808,6 +3082,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>实际成本：资产在其取得时为他所支付的现金或现金等价物的金额。负债在正常经营活动中为交换而收到的或未偿付将要支付的现金或现金等价物的金额。</t>
         </r>
@@ -2816,24 +3091,27 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>金融资产：金融资产通常指企业的库存现金、银行存款、其他货币基金、应收账款、应收票据、贷款、其他应收款、股权投资、债权投资和衍生金融工具形成的资产。</t>
         </r>
@@ -2847,23 +3125,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业为筹集资金而对外发行的期限在一年以上的长期借贷款性质的书面证明，约定在一定期限内还本付息的一种书面承诺。</t>
         </r>
@@ -2877,14 +3158,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2910,23 +3193,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业除了长期借款和应付债券以外的长期负债，包括应付引进设备款、应付融资租入固定资产的租赁费等。</t>
         </r>
@@ -2940,14 +3226,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2973,23 +3261,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业除了长期借款和应付债券以外的长期负债，包括应付引进设备款、应付融资租入固定资产的租赁费等。</t>
         </r>
@@ -3003,14 +3294,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -3036,23 +3329,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业除了长期借款和应付债券以外的长期负债，包括应付引进设备款、应付融资租入固定资产的租赁费等。</t>
         </r>
@@ -3066,14 +3362,16 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -3098,23 +3396,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业除了长期借款和应付债券以外的长期负债，包括应付引进设备款、应付融资租入固定资产的租赁费等。</t>
         </r>
@@ -3128,23 +3429,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>公司总资产中扣除负债所余下的部分，也成为净资产。股东权益是一个很重要的财务指标，它反映了公司的自有资本。</t>
         </r>
@@ -3153,15 +3457,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>股本：股东在公司中所占的权益，多用于指股票。</t>
         </r>
@@ -3175,23 +3481,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>公司总资产中扣除负债所余下的部分，也成为净资产。股东权益是一个很重要的财务指标，它反映了公司的自有资本。</t>
         </r>
@@ -3200,15 +3509,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>股本：股东在公司中所占的权益，多用于指股票。</t>
         </r>
@@ -3222,23 +3533,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>公司总资产中扣除负债所余下的部分，也成为净资产。股东权益是一个很重要的财务指标，它反映了公司的自有资本。</t>
         </r>
@@ -3247,15 +3561,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>股本：股东在公司中所占的权益，多用于指股票。</t>
         </r>
@@ -3269,23 +3585,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>公司总资产中扣除负债所余下的部分，也成为净资产。股东权益是一个很重要的财务指标，它反映了公司的自有资本。</t>
         </r>
@@ -3294,15 +3613,17 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>股本：股东在公司中所占的权益，多用于指股票。</t>
         </r>
@@ -3316,23 +3637,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业收到的投资者的超出其在企业注册资本所占份额，以及直接计入所有者权益的利得和损失等。资本公积包括资本溢价（股本溢价）和直接计入所有者权益的利得和损失。</t>
         </r>
@@ -3346,23 +3670,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业收到的投资者的超出其在企业注册资本所占份额，以及直接计入所有者权益的利得和损失等。资本公积包括资本溢价（股本溢价）和直接计入所有者权益的利得和损失。</t>
         </r>
@@ -3376,23 +3703,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业收到的投资者的超出其在企业注册资本所占份额，以及直接计入所有者权益的利得和损失等。资本公积包括资本溢价（股本溢价）和直接计入所有者权益的利得和损失。</t>
         </r>
@@ -3406,23 +3736,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业收到的投资者的超出其在企业注册资本所占份额，以及直接计入所有者权益的利得和损失等。资本公积包括资本溢价（股本溢价）和直接计入所有者权益的利得和损失。</t>
         </r>
@@ -3436,23 +3769,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业按照规定从净利润中提取的各种积累资金。</t>
         </r>
@@ -3466,23 +3802,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业按照规定从净利润中提取的各种积累资金。</t>
         </r>
@@ -3496,23 +3835,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业按照规定从净利润中提取的各种积累资金。</t>
         </r>
@@ -3526,23 +3868,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>企业按照规定从净利润中提取的各种积累资金。</t>
         </r>
@@ -3556,23 +3901,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>未分配利润：企业未作分配的利润。它在以后年度可继续进行分配，在未进行分配之前，属于所有者权益的组成部分。</t>
         </r>
@@ -3586,23 +3934,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>未分配利润：企业未作分配的利润。它在以后年度可继续进行分配，在未进行分配之前，属于所有者权益的组成部分。</t>
         </r>
@@ -3616,23 +3967,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>未分配利润：企业未作分配的利润。它在以后年度可继续进行分配，在未进行分配之前，属于所有者权益的组成部分。</t>
         </r>
@@ -3646,23 +4000,26 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t>Palance:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
           </rPr>
           <t>未分配利润：企业未作分配的利润。它在以后年度可继续进行分配，在未进行分配之前，属于所有者权益的组成部分。</t>
         </r>
@@ -3942,21 +4299,21 @@
   </si>
   <si>
     <t>第二步：向银行贷款5100万</t>
-    <rPh sb="0" eb="166">
+    <rPh sb="0" eb="14">
       <t>di'yi'bu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第三步：支出5700万购置厂房、设备及办公家具</t>
-    <rPh sb="0" eb="441">
+    <rPh sb="0" eb="23">
       <t>di'yi'bu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第四步：花150万获得一块土地的使用权</t>
-    <rPh sb="0" eb="1039">
+    <t>第四步：花150万获得一块土地的使用权，在中国土地使用权属于无形资产</t>
+    <rPh sb="0" eb="19">
       <t>di'yi'bu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3995,15 +4352,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4018,6 +4370,13 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4214,9 +4573,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4276,12 +4632,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4290,6 +4640,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4606,8 +4965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4634,723 +4993,723 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:19" ht="17" thickBot="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="F3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="K3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="P3" s="1" t="s">
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="P3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="3"/>
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="K4" s="2" t="s">
+      <c r="I4" s="3"/>
+      <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="P4" s="2" t="s">
+      <c r="N4" s="3"/>
+      <c r="P4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="2" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="4"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="6"/>
+      <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="6"/>
+      <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="P5" s="5" t="s">
+      <c r="N5" s="6"/>
+      <c r="P5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="5" t="s">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="7"/>
+      <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="32">
         <v>3200</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="32">
         <v>8300</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="33">
         <v>5100</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="32">
         <v>2600</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>5100</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="35">
+      <c r="Q6" s="32">
         <v>2450</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>5100</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="6"/>
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="K7" s="8" t="s">
+      <c r="I7" s="6"/>
+      <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8" t="s">
+      <c r="L7" s="5"/>
+      <c r="M7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="P7" s="8" t="s">
+      <c r="N7" s="6"/>
+      <c r="P7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="8" t="s">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="7"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="6"/>
+      <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="K8" s="8" t="s">
+      <c r="I8" s="6"/>
+      <c r="K8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="P8" s="8" t="s">
+      <c r="N8" s="6"/>
+      <c r="P8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="8" t="s">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="S8" s="6"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="6"/>
+      <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="K9" s="8" t="s">
+      <c r="I9" s="6"/>
+      <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8" t="s">
+      <c r="L9" s="5"/>
+      <c r="M9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="P9" s="8" t="s">
+      <c r="N9" s="6"/>
+      <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="8" t="s">
+      <c r="Q9" s="5"/>
+      <c r="R9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="7"/>
+      <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="6"/>
+      <c r="F10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="K10" s="8" t="s">
+      <c r="I10" s="6"/>
+      <c r="K10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8" t="s">
+      <c r="L10" s="5"/>
+      <c r="M10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="P10" s="8" t="s">
+      <c r="N10" s="6"/>
+      <c r="P10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="8" t="s">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="F11" s="8" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
-      <c r="K11" s="8" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="7"/>
-      <c r="P11" s="8" t="s">
+      <c r="L11" s="5"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="6"/>
+      <c r="P11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="7"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" ht="17" thickBot="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="F12" s="10" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="K12" s="10" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="K12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
-      <c r="P12" s="10" t="s">
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+      <c r="P12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="13"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="6"/>
+      <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="14" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="K13" s="5" t="s">
+      <c r="I13" s="6"/>
+      <c r="K13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="14" t="s">
+      <c r="L13" s="5"/>
+      <c r="M13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="P13" s="5" t="s">
+      <c r="N13" s="6"/>
+      <c r="P13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="14" t="s">
+      <c r="Q13" s="5"/>
+      <c r="R13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="7"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="15"/>
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="K14" s="8" t="s">
+      <c r="I14" s="15"/>
+      <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="8" t="s">
+      <c r="L14" s="14"/>
+      <c r="M14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="P14" s="8" t="s">
+      <c r="N14" s="15"/>
+      <c r="P14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="8" t="s">
+      <c r="Q14" s="14"/>
+      <c r="R14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="S14" s="16"/>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="F15" s="8" t="s">
+      <c r="D15" s="6"/>
+      <c r="F15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="K15" s="8" t="s">
+      <c r="I15" s="6"/>
+      <c r="K15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="32">
         <v>5700</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="P15" s="8" t="s">
+      <c r="N15" s="6"/>
+      <c r="P15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>5700</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="R15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="7"/>
+      <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="6"/>
+      <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="K16" s="8" t="s">
+      <c r="I16" s="6"/>
+      <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8" t="s">
+      <c r="L16" s="5"/>
+      <c r="M16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="P16" s="8" t="s">
+      <c r="N16" s="6"/>
+      <c r="P16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="32">
         <v>150</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S16" s="7"/>
+      <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="8" t="s">
+      <c r="D17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8" t="s">
+      <c r="I17" s="6"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="8" t="s">
+      <c r="N17" s="6"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="S17" s="7"/>
+      <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="2" t="s">
+      <c r="D18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="2" t="s">
+      <c r="I18" s="6"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="2" t="s">
+      <c r="N18" s="6"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="7"/>
+      <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="8" t="s">
+      <c r="D19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8" t="s">
+      <c r="I19" s="6"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="8" t="s">
+      <c r="N19" s="6"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="7"/>
+      <c r="S19" s="6"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="9"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="8" t="s">
+      <c r="D20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8" t="s">
+      <c r="I20" s="6"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="8" t="s">
+      <c r="N20" s="6"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S20" s="7"/>
+      <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="9"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="8" t="s">
+      <c r="D21" s="6"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8" t="s">
+      <c r="I21" s="6"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="8" t="s">
+      <c r="N21" s="6"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S21" s="7"/>
+      <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="9"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="8" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="8" t="s">
+      <c r="D22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8" t="s">
+      <c r="I22" s="6"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="7"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="8" t="s">
+      <c r="N22" s="6"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S22" s="7"/>
+      <c r="S22" s="6"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19" t="s">
+      <c r="D23" s="19"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19" t="s">
+      <c r="I23" s="19"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="20"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="19" t="s">
+      <c r="N23" s="19"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="S23" s="20"/>
+      <c r="S23" s="19"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="26" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="26" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="26" t="s">
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="26" t="s">
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="21" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="31">
         <v>3200</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="21" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="20" t="s">
         <v>33</v>
       </c>
       <c r="I25">
         <v>3200</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="21" t="s">
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="20" t="s">
         <v>33</v>
       </c>
       <c r="N25">
         <v>3200</v>
       </c>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="21" t="s">
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="20" t="s">
         <v>33</v>
       </c>
       <c r="S25">
@@ -5358,170 +5717,170 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="21" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="21" t="s">
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="21" t="s">
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="21" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="21" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="21" t="s">
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="21" t="s">
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29" t="s">
+      <c r="D28" s="29"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="29" t="s">
+      <c r="I28" s="29"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="N28" s="30"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="29" t="s">
+      <c r="N28" s="29"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="S28" s="30"/>
+      <c r="S28" s="29"/>
     </row>
     <row r="29" spans="1:19" ht="17" thickBot="1">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <f>SUM(B4:B22)</f>
         <v>3200</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="24">
         <f>SUM(D4:D28)</f>
         <v>3200</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="23">
         <f>SUM(G4:G28)</f>
         <v>8300</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="24">
         <f>SUM(I4:I28)</f>
         <v>8300</v>
       </c>
-      <c r="K29" s="24" t="s">
+      <c r="K29" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="23">
         <f>SUM(L4:L28)</f>
         <v>8300</v>
       </c>
-      <c r="M29" s="27" t="s">
+      <c r="M29" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="24">
         <f>SUM(N4:N28)</f>
         <v>8300</v>
       </c>
-      <c r="P29" s="24" t="s">
+      <c r="P29" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q29" s="23">
         <f>SUM(Q4:Q28)</f>
         <v>8300</v>
       </c>
-      <c r="R29" s="27" t="s">
+      <c r="R29" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="S29" s="25">
+      <c r="S29" s="24">
         <f>SUM(S4:S28)</f>
         <v>8300</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="F30" s="31" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="F30" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="K30" s="31" t="s">
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="K30" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="P30" s="31" t="s">
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="P30" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K30:N30"/>
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="P30:S30"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K30:N30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FinacialStatementSamples.xlsx
+++ b/FinacialStatementSamples.xlsx
@@ -2209,12 +2209,678 @@
         </r>
       </text>
     </comment>
+    <comment ref="A352" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>它表达的含义：公司一共获得</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>10720</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万的资金。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>这些资金从哪里来的呢？看右侧：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>5100</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>贷款、</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3200</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>股本</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">……
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>这些钱都变成了什么呢？看左侧：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2920</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>现金、</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1300</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>应收账款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>……</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F400" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>毛利率：毛利与销售收入（或营业收入）的百分比。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>毛利：是营业收入和与收入相对应的营业成本之间的差额</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F401" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>又称销售净利率，是反映公司盈利能力的一项重要指标，是扣除所有成本、费用和企业所得税后的利润率。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F402" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>收入</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>总资产</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>*</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>净利润</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>收入</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>净利润</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>总资产</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>总资产报酬率，即效率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>×</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>效益</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>总资产报酬率</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>总资产报酬率：又称总资产利润率、总资产回报率、资产总额利润率，英文缩写</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ROA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，用以评价企业运用全部资产的总体获利能力。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F403" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>palance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>股东权益被称作净资产。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>投资回报率（</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ROI</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>）：通过投资而应返回的价值，企业从一项投资性商业活动的投资中得到的经济回报。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>净资产收益率：又称净资产利润率（</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ROE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>），指利润与平均股东权益的比值。该指标体现了自有资本获得净收益的能力。</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="119">
   <si>
     <t>资产负债表（单位：元）</t>
     <rPh sb="0" eb="5">
@@ -2679,6 +3345,9 @@
   </si>
   <si>
     <t>第十一步：支付130万利息</t>
+  </si>
+  <si>
+    <t>第十一步：支付130万利息</t>
     <rPh sb="0" eb="3979">
       <t>di'yi'bu</t>
     </rPh>
@@ -2983,6 +3652,58 @@
   </si>
   <si>
     <t>第七步：销售产品（成本3100万），销售合同4300万，收到3000万，还有1300万欠款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八步：为下一年生产采购原材料，预付150万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九步：公司花费50万研制一种低成本污染处理的技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十步：支出400万，其中250支付销售人员工资和销售部门开支，150支付管理人员工资和管理部门开支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二步：上缴100万所得税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十三步：分配100万给股东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十四步：发放员工工资1200万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利率</t>
+    <rPh sb="0" eb="1">
+      <t>xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利率</t>
+    <rPh sb="0" eb="3">
+      <t>jing'li'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产报酬率</t>
+    <rPh sb="0" eb="6">
+      <t>zong'zi'chan'bao'chou'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净资产报酬率</t>
+    <rPh sb="0" eb="6">
+      <t>jing'zi'chan'bao'chou'lv</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3295,15 +4016,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3475,9 +4199,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3499,8 +4220,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
@@ -3816,8 +4544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S182"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32:Q49"/>
+    <sheetView topLeftCell="A93" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K148" sqref="K148:L182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6845,7 +7573,7 @@
       <c r="F117" s="78"/>
       <c r="G117" s="78"/>
       <c r="K117" s="78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L117" s="78"/>
       <c r="M117" s="78"/>
@@ -7615,7 +8343,7 @@
     </row>
     <row r="146" spans="1:17">
       <c r="A146" s="78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B146" s="78"/>
       <c r="C146" s="78"/>
@@ -7624,7 +8352,7 @@
       <c r="F146" s="78"/>
       <c r="G146" s="78"/>
       <c r="K146" s="74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L146" s="74"/>
       <c r="M146" s="74"/>
@@ -7645,10 +8373,10 @@
         <v>43</v>
       </c>
       <c r="G148" s="37"/>
-      <c r="K148" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="L148" s="86"/>
+      <c r="K148" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="L148" s="85"/>
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="38" t="s">
@@ -7666,12 +8394,12 @@
       <c r="G149" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="J149" s="89"/>
-      <c r="K149" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="L149" s="90"/>
-      <c r="M149" s="89"/>
+      <c r="J149" s="88"/>
+      <c r="K149" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="L149" s="89"/>
+      <c r="M149" s="88"/>
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="41" t="s">
@@ -7689,14 +8417,14 @@
       <c r="G150" s="77">
         <v>4300</v>
       </c>
-      <c r="J150" s="89"/>
-      <c r="K150" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="L150" s="91">
+      <c r="J150" s="88"/>
+      <c r="K150" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="L150" s="90">
         <v>3000</v>
       </c>
-      <c r="M150" s="89"/>
+      <c r="M150" s="88"/>
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="43" t="s">
@@ -7719,12 +8447,12 @@
       <c r="G151" s="77">
         <v>3100</v>
       </c>
-      <c r="J151" s="89"/>
-      <c r="K151" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="L151" s="91"/>
-      <c r="M151" s="89"/>
+      <c r="J151" s="88"/>
+      <c r="K151" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="L151" s="90"/>
+      <c r="M151" s="88"/>
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="43" t="s">
@@ -7745,12 +8473,12 @@
         <v>48</v>
       </c>
       <c r="G152" s="77"/>
-      <c r="J152" s="89"/>
-      <c r="K152" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="L152" s="91"/>
-      <c r="M152" s="89"/>
+      <c r="J152" s="88"/>
+      <c r="K152" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="L152" s="90"/>
+      <c r="M152" s="88"/>
     </row>
     <row r="153" spans="1:17">
       <c r="A153" s="43" t="s">
@@ -7768,14 +8496,14 @@
       <c r="G153" s="77">
         <v>250</v>
       </c>
-      <c r="J153" s="89"/>
-      <c r="K153" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="L153" s="91">
+      <c r="J153" s="88"/>
+      <c r="K153" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="L153" s="90">
         <v>3000</v>
       </c>
-      <c r="M153" s="89"/>
+      <c r="M153" s="88"/>
     </row>
     <row r="154" spans="1:17">
       <c r="A154" s="43" t="s">
@@ -7796,14 +8524,14 @@
         <f>50+150</f>
         <v>200</v>
       </c>
-      <c r="J154" s="89"/>
-      <c r="K154" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="L154" s="91">
+      <c r="J154" s="88"/>
+      <c r="K154" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="L154" s="90">
         <v>1750</v>
       </c>
-      <c r="M154" s="89"/>
+      <c r="M154" s="88"/>
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="43" t="s">
@@ -7824,14 +8552,14 @@
       <c r="G155" s="77">
         <v>130</v>
       </c>
-      <c r="J155" s="89"/>
-      <c r="K155" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="L155" s="91">
+      <c r="J155" s="88"/>
+      <c r="K155" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="L155" s="90">
         <v>1200</v>
       </c>
-      <c r="M155" s="89"/>
+      <c r="M155" s="88"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="43" t="s">
@@ -7845,14 +8573,14 @@
         <v>52</v>
       </c>
       <c r="G156" s="77"/>
-      <c r="J156" s="89"/>
-      <c r="K156" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="L156" s="91">
+      <c r="J156" s="88"/>
+      <c r="K156" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="M156" s="89"/>
+      <c r="L156" s="90">
+        <v>100</v>
+      </c>
+      <c r="M156" s="88"/>
     </row>
     <row r="157" spans="1:17" ht="17" thickBot="1">
       <c r="A157" s="45" t="s">
@@ -7866,14 +8594,14 @@
         <v>53</v>
       </c>
       <c r="G157" s="77"/>
-      <c r="J157" s="89"/>
-      <c r="K157" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="L157" s="91">
+      <c r="J157" s="88"/>
+      <c r="K157" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="L157" s="90">
         <v>450</v>
       </c>
-      <c r="M157" s="89"/>
+      <c r="M157" s="88"/>
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="41" t="s">
@@ -7889,14 +8617,14 @@
         <v>54</v>
       </c>
       <c r="G158" s="77"/>
-      <c r="J158" s="89"/>
-      <c r="K158" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="L158" s="91">
+      <c r="J158" s="88"/>
+      <c r="K158" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="L158" s="90">
         <v>3500</v>
       </c>
-      <c r="M158" s="89"/>
+      <c r="M158" s="88"/>
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="43" t="s">
@@ -7912,14 +8640,14 @@
         <v>55</v>
       </c>
       <c r="G159" s="77"/>
-      <c r="J159" s="89"/>
-      <c r="K159" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="L159" s="91">
+      <c r="J159" s="88"/>
+      <c r="K159" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="L159" s="90">
         <v>-500</v>
       </c>
-      <c r="M159" s="89"/>
+      <c r="M159" s="88"/>
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="43" t="s">
@@ -7937,12 +8665,12 @@
         <v>56</v>
       </c>
       <c r="G160" s="77"/>
-      <c r="J160" s="89"/>
-      <c r="K160" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="L160" s="92"/>
-      <c r="M160" s="89"/>
+      <c r="J160" s="88"/>
+      <c r="K160" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="L160" s="91"/>
+      <c r="M160" s="88"/>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="43" t="s">
@@ -7960,12 +8688,12 @@
         <v>57</v>
       </c>
       <c r="G161" s="77"/>
-      <c r="J161" s="89"/>
-      <c r="K161" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="L161" s="91"/>
-      <c r="M161" s="89"/>
+      <c r="J161" s="88"/>
+      <c r="K161" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="L161" s="90"/>
+      <c r="M161" s="88"/>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="41"/>
@@ -7979,12 +8707,12 @@
         <v>58</v>
       </c>
       <c r="G162" s="77"/>
-      <c r="J162" s="89"/>
-      <c r="K162" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="L162" s="91"/>
-      <c r="M162" s="89"/>
+      <c r="J162" s="88"/>
+      <c r="K162" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="L162" s="90"/>
+      <c r="M162" s="88"/>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="44"/>
@@ -7998,12 +8726,12 @@
         <v>59</v>
       </c>
       <c r="G163" s="77"/>
-      <c r="J163" s="89"/>
-      <c r="K163" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="L163" s="91"/>
-      <c r="M163" s="89"/>
+      <c r="J163" s="88"/>
+      <c r="K163" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="L163" s="90"/>
+      <c r="M163" s="88"/>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="44"/>
@@ -8019,12 +8747,12 @@
       <c r="G164" s="77">
         <v>100</v>
       </c>
-      <c r="J164" s="89"/>
-      <c r="K164" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="L164" s="91"/>
-      <c r="M164" s="89"/>
+      <c r="J164" s="88"/>
+      <c r="K164" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="L164" s="90"/>
+      <c r="M164" s="88"/>
     </row>
     <row r="165" spans="1:13" ht="17" thickBot="1">
       <c r="A165" s="44"/>
@@ -8041,12 +8769,12 @@
         <f>G150-SUM(G151:G156)-G164</f>
         <v>520</v>
       </c>
-      <c r="J165" s="89"/>
-      <c r="K165" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="L165" s="91"/>
-      <c r="M165" s="89"/>
+      <c r="J165" s="88"/>
+      <c r="K165" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="L165" s="90"/>
+      <c r="M165" s="88"/>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="44"/>
@@ -8058,14 +8786,14 @@
       <c r="E166" s="36"/>
       <c r="F166" s="36"/>
       <c r="G166" s="36"/>
-      <c r="J166" s="89"/>
-      <c r="K166" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="L166" s="91">
+      <c r="J166" s="88"/>
+      <c r="K166" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="L166" s="90">
         <v>5850</v>
       </c>
-      <c r="M166" s="89"/>
+      <c r="M166" s="88"/>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="44"/>
@@ -8077,12 +8805,12 @@
       <c r="E167" s="36"/>
       <c r="F167" s="36"/>
       <c r="G167" s="36"/>
-      <c r="J167" s="89"/>
-      <c r="K167" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="L167" s="91"/>
-      <c r="M167" s="89"/>
+      <c r="J167" s="88"/>
+      <c r="K167" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="L167" s="90"/>
+      <c r="M167" s="88"/>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="52"/>
@@ -8094,12 +8822,12 @@
       <c r="E168" s="36"/>
       <c r="F168" s="36"/>
       <c r="G168" s="36"/>
-      <c r="J168" s="89"/>
-      <c r="K168" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="L168" s="91"/>
-      <c r="M168" s="89"/>
+      <c r="J168" s="88"/>
+      <c r="K168" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="L168" s="90"/>
+      <c r="M168" s="88"/>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="56"/>
@@ -8111,14 +8839,14 @@
       <c r="E169" s="36"/>
       <c r="F169" s="36"/>
       <c r="G169" s="36"/>
-      <c r="J169" s="89"/>
-      <c r="K169" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="L169" s="91">
+      <c r="J169" s="88"/>
+      <c r="K169" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="L169" s="90">
         <v>5850</v>
       </c>
-      <c r="M169" s="89"/>
+      <c r="M169" s="88"/>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="58"/>
@@ -8132,14 +8860,14 @@
       <c r="E170" s="36"/>
       <c r="F170" s="36"/>
       <c r="G170" s="36"/>
-      <c r="J170" s="89"/>
-      <c r="K170" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="L170" s="91">
+      <c r="J170" s="88"/>
+      <c r="K170" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="L170" s="90">
         <v>-5850</v>
       </c>
-      <c r="M170" s="89"/>
+      <c r="M170" s="88"/>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="58"/>
@@ -8151,12 +8879,12 @@
       <c r="E171" s="36"/>
       <c r="F171" s="36"/>
       <c r="G171" s="36"/>
-      <c r="J171" s="89"/>
-      <c r="K171" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="L171" s="92"/>
-      <c r="M171" s="89"/>
+      <c r="J171" s="88"/>
+      <c r="K171" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="L171" s="91"/>
+      <c r="M171" s="88"/>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="58"/>
@@ -8168,14 +8896,14 @@
       <c r="E172" s="36"/>
       <c r="F172" s="36"/>
       <c r="G172" s="36"/>
-      <c r="J172" s="89"/>
-      <c r="K172" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="L172" s="91">
+      <c r="J172" s="88"/>
+      <c r="K172" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="L172" s="90">
         <v>3200</v>
       </c>
-      <c r="M172" s="89"/>
+      <c r="M172" s="88"/>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="59"/>
@@ -8190,14 +8918,14 @@
       <c r="E173" s="36"/>
       <c r="F173" s="36"/>
       <c r="G173" s="36"/>
-      <c r="J173" s="89"/>
-      <c r="K173" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="L173" s="91">
+      <c r="J173" s="88"/>
+      <c r="K173" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="L173" s="90">
         <v>5100</v>
       </c>
-      <c r="M173" s="89"/>
+      <c r="M173" s="88"/>
     </row>
     <row r="174" spans="1:13" ht="17" thickBot="1">
       <c r="A174" s="61" t="s">
@@ -8217,16 +8945,16 @@
       <c r="E174" s="36"/>
       <c r="F174" s="36"/>
       <c r="G174" s="36"/>
-      <c r="J174" s="89"/>
-      <c r="K174" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="L174" s="91"/>
-      <c r="M174" s="89"/>
+      <c r="J174" s="88"/>
+      <c r="K174" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="L174" s="90"/>
+      <c r="M174" s="88"/>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B175" s="74"/>
       <c r="C175" s="74"/>
@@ -8234,72 +8962,72 @@
       <c r="E175" s="74"/>
       <c r="F175" s="74"/>
       <c r="G175" s="74"/>
-      <c r="J175" s="89"/>
-      <c r="K175" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="L175" s="91">
+      <c r="J175" s="88"/>
+      <c r="K175" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="L175" s="90">
         <v>8300</v>
       </c>
-      <c r="M175" s="89"/>
+      <c r="M175" s="88"/>
     </row>
     <row r="176" spans="1:13">
-      <c r="J176" s="89"/>
-      <c r="K176" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="L176" s="91"/>
-      <c r="M176" s="89"/>
+      <c r="J176" s="88"/>
+      <c r="K176" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="L176" s="90"/>
+      <c r="M176" s="88"/>
     </row>
     <row r="177" spans="10:13">
-      <c r="J177" s="89"/>
-      <c r="K177" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="L177" s="91">
+      <c r="J177" s="88"/>
+      <c r="K177" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="L177" s="90">
         <v>230</v>
       </c>
-      <c r="M177" s="89"/>
+      <c r="M177" s="88"/>
     </row>
     <row r="178" spans="10:13">
-      <c r="J178" s="89"/>
-      <c r="K178" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="L178" s="91"/>
-      <c r="M178" s="89"/>
+      <c r="J178" s="88"/>
+      <c r="K178" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="L178" s="90"/>
+      <c r="M178" s="88"/>
     </row>
     <row r="179" spans="10:13">
-      <c r="J179" s="89"/>
-      <c r="K179" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="L179" s="91">
+      <c r="J179" s="88"/>
+      <c r="K179" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="L179" s="90">
         <v>230</v>
       </c>
-      <c r="M179" s="89"/>
+      <c r="M179" s="88"/>
     </row>
     <row r="180" spans="10:13">
-      <c r="J180" s="89"/>
-      <c r="K180" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="L180" s="91">
+      <c r="J180" s="88"/>
+      <c r="K180" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="L180" s="90">
         <v>8070</v>
       </c>
-      <c r="M180" s="89"/>
+      <c r="M180" s="88"/>
     </row>
     <row r="181" spans="10:13">
-      <c r="K181" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="L181" s="91"/>
+      <c r="K181" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="L181" s="90"/>
     </row>
     <row r="182" spans="10:13">
-      <c r="K182" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="L182" s="91">
+      <c r="K182" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="L182" s="90">
         <v>1720</v>
       </c>
     </row>
@@ -8349,19 +9077,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:J415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I389" sqref="I389"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.83203125" customWidth="1"/>
     <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -8373,14 +9105,14 @@
       <c r="D1" s="67"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-    </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1">
+      <c r="A3" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+    </row>
+    <row r="4" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
@@ -8388,7 +9120,7 @@
       <c r="C4" s="63"/>
       <c r="D4" s="63"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -8398,7 +9130,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -8408,7 +9140,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -8420,7 +9152,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -8430,7 +9162,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -8440,7 +9172,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -8450,7 +9182,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -8460,7 +9192,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -8468,7 +9200,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1">
+    <row r="13" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -8476,7 +9208,7 @@
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -8486,7 +9218,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
@@ -8496,7 +9228,7 @@
       </c>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -8506,7 +9238,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -8516,7 +9248,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="7" t="s">
@@ -8524,7 +9256,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -8532,7 +9264,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="7" t="s">
@@ -8540,7 +9272,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
       <c r="C21" s="7" t="s">
@@ -8548,7 +9280,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="7" t="s">
@@ -8556,7 +9288,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="7" t="s">
@@ -8564,7 +9296,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18" t="s">
@@ -8572,14 +9304,14 @@
       </c>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="20" t="s">
@@ -8589,21 +9321,21 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28" t="s">
@@ -8611,7 +9343,7 @@
       </c>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="1:4" ht="17" thickBot="1">
+    <row r="30" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A30" s="23" t="s">
         <v>31</v>
       </c>
@@ -8627,15 +9359,16 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-    </row>
-    <row r="33" spans="1:4" ht="17" thickBot="1">
+    <row r="31" spans="1:4" collapsed="1"/>
+    <row r="32" spans="1:4" ht="17" thickBot="1">
+      <c r="A32" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+    </row>
+    <row r="33" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A33" s="63" t="s">
         <v>0</v>
       </c>
@@ -8643,7 +9376,7 @@
       <c r="C33" s="63"/>
       <c r="D33" s="63"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -8653,7 +9386,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A35" s="4" t="s">
         <v>3</v>
       </c>
@@ -8663,7 +9396,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A36" s="7" t="s">
         <v>5</v>
       </c>
@@ -8677,7 +9410,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A37" s="7" t="s">
         <v>7</v>
       </c>
@@ -8687,7 +9420,7 @@
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A38" s="7" t="s">
         <v>9</v>
       </c>
@@ -8697,7 +9430,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A39" s="7" t="s">
         <v>11</v>
       </c>
@@ -8707,7 +9440,7 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A40" s="7" t="s">
         <v>13</v>
       </c>
@@ -8717,7 +9450,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A41" s="7" t="s">
         <v>14</v>
       </c>
@@ -8725,7 +9458,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" ht="17" thickBot="1">
+    <row r="42" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A42" s="9" t="s">
         <v>15</v>
       </c>
@@ -8733,7 +9466,7 @@
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A43" s="4" t="s">
         <v>16</v>
       </c>
@@ -8743,7 +9476,7 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A44" s="7" t="s">
         <v>18</v>
       </c>
@@ -8753,7 +9486,7 @@
       </c>
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A45" s="7" t="s">
         <v>20</v>
       </c>
@@ -8763,7 +9496,7 @@
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A46" s="7" t="s">
         <v>22</v>
       </c>
@@ -8773,7 +9506,7 @@
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="7" t="s">
@@ -8781,7 +9514,7 @@
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A48" s="8"/>
       <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
@@ -8789,7 +9522,7 @@
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A49" s="8"/>
       <c r="B49" s="5"/>
       <c r="C49" s="7" t="s">
@@ -8797,7 +9530,7 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A50" s="8"/>
       <c r="B50" s="5"/>
       <c r="C50" s="7" t="s">
@@ -8805,7 +9538,7 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A51" s="8"/>
       <c r="B51" s="5"/>
       <c r="C51" s="7" t="s">
@@ -8813,7 +9546,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A52" s="8"/>
       <c r="B52" s="5"/>
       <c r="C52" s="7" t="s">
@@ -8821,7 +9554,7 @@
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="C53" s="18" t="s">
@@ -8829,14 +9562,14 @@
       </c>
       <c r="D53" s="19"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="20" t="s">
@@ -8846,21 +9579,21 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="28" t="s">
@@ -8868,7 +9601,7 @@
       </c>
       <c r="D58" s="29"/>
     </row>
-    <row r="59" spans="1:4" ht="17" thickBot="1">
+    <row r="59" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A59" s="23" t="s">
         <v>31</v>
       </c>
@@ -8884,21 +9617,21 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" collapsed="1">
       <c r="A60" s="64"/>
       <c r="B60" s="64"/>
       <c r="C60" s="64"/>
       <c r="D60" s="64"/>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-    </row>
-    <row r="62" spans="1:4" ht="17" thickBot="1">
+    <row r="61" spans="1:4" ht="17" thickBot="1">
+      <c r="A61" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+    </row>
+    <row r="62" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A62" s="63" t="s">
         <v>0</v>
       </c>
@@ -8906,7 +9639,7 @@
       <c r="C62" s="63"/>
       <c r="D62" s="63"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -8916,7 +9649,7 @@
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A64" s="4" t="s">
         <v>3</v>
       </c>
@@ -8926,7 +9659,7 @@
       </c>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A65" s="7" t="s">
         <v>5</v>
       </c>
@@ -8940,7 +9673,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A66" s="7" t="s">
         <v>7</v>
       </c>
@@ -8950,7 +9683,7 @@
       </c>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A67" s="7" t="s">
         <v>9</v>
       </c>
@@ -8960,7 +9693,7 @@
       </c>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A68" s="7" t="s">
         <v>11</v>
       </c>
@@ -8970,7 +9703,7 @@
       </c>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A69" s="7" t="s">
         <v>13</v>
       </c>
@@ -8980,7 +9713,7 @@
       </c>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A70" s="7" t="s">
         <v>14</v>
       </c>
@@ -8988,7 +9721,7 @@
       <c r="C70" s="8"/>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="1:4" ht="17" thickBot="1">
+    <row r="71" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A71" s="9" t="s">
         <v>15</v>
       </c>
@@ -8996,7 +9729,7 @@
       <c r="C71" s="11"/>
       <c r="D71" s="12"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A72" s="4" t="s">
         <v>16</v>
       </c>
@@ -9006,7 +9739,7 @@
       </c>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A73" s="7" t="s">
         <v>18</v>
       </c>
@@ -9016,7 +9749,7 @@
       </c>
       <c r="D73" s="15"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A74" s="7" t="s">
         <v>20</v>
       </c>
@@ -9028,7 +9761,7 @@
       </c>
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A75" s="7" t="s">
         <v>22</v>
       </c>
@@ -9038,7 +9771,7 @@
       </c>
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="7" t="s">
@@ -9046,7 +9779,7 @@
       </c>
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A77" s="8"/>
       <c r="B77" s="5"/>
       <c r="C77" s="1" t="s">
@@ -9054,7 +9787,7 @@
       </c>
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A78" s="8"/>
       <c r="B78" s="5"/>
       <c r="C78" s="7" t="s">
@@ -9062,7 +9795,7 @@
       </c>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A79" s="8"/>
       <c r="B79" s="5"/>
       <c r="C79" s="7" t="s">
@@ -9070,7 +9803,7 @@
       </c>
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A80" s="8"/>
       <c r="B80" s="5"/>
       <c r="C80" s="7" t="s">
@@ -9078,7 +9811,7 @@
       </c>
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A81" s="8"/>
       <c r="B81" s="5"/>
       <c r="C81" s="7" t="s">
@@ -9086,7 +9819,7 @@
       </c>
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A82" s="16"/>
       <c r="B82" s="17"/>
       <c r="C82" s="18" t="s">
@@ -9094,14 +9827,14 @@
       </c>
       <c r="D82" s="19"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="20" t="s">
@@ -9111,21 +9844,21 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="28" t="s">
@@ -9133,7 +9866,7 @@
       </c>
       <c r="D87" s="29"/>
     </row>
-    <row r="88" spans="1:4" ht="17" thickBot="1">
+    <row r="88" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A88" s="23" t="s">
         <v>31</v>
       </c>
@@ -9149,21 +9882,21 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" collapsed="1">
       <c r="A89" s="64"/>
       <c r="B89" s="64"/>
       <c r="C89" s="64"/>
       <c r="D89" s="64"/>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-    </row>
-    <row r="91" spans="1:4" ht="17" thickBot="1">
+    <row r="90" spans="1:4" ht="17" thickBot="1">
+      <c r="A90" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="67"/>
+    </row>
+    <row r="91" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A91" s="63" t="s">
         <v>0</v>
       </c>
@@ -9171,7 +9904,7 @@
       <c r="C91" s="63"/>
       <c r="D91" s="63"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -9181,7 +9914,7 @@
       </c>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A93" s="4" t="s">
         <v>3</v>
       </c>
@@ -9191,7 +9924,7 @@
       </c>
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A94" s="7" t="s">
         <v>5</v>
       </c>
@@ -9205,7 +9938,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A95" s="7" t="s">
         <v>7</v>
       </c>
@@ -9215,7 +9948,7 @@
       </c>
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A96" s="7" t="s">
         <v>9</v>
       </c>
@@ -9225,7 +9958,7 @@
       </c>
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A97" s="7" t="s">
         <v>11</v>
       </c>
@@ -9235,7 +9968,7 @@
       </c>
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A98" s="7" t="s">
         <v>13</v>
       </c>
@@ -9245,7 +9978,7 @@
       </c>
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A99" s="7" t="s">
         <v>14</v>
       </c>
@@ -9253,7 +9986,7 @@
       <c r="C99" s="8"/>
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="1:4" ht="17" thickBot="1">
+    <row r="100" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A100" s="9" t="s">
         <v>15</v>
       </c>
@@ -9261,7 +9994,7 @@
       <c r="C100" s="11"/>
       <c r="D100" s="12"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A101" s="4" t="s">
         <v>16</v>
       </c>
@@ -9271,7 +10004,7 @@
       </c>
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A102" s="7" t="s">
         <v>18</v>
       </c>
@@ -9281,7 +10014,7 @@
       </c>
       <c r="D102" s="15"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A103" s="7" t="s">
         <v>20</v>
       </c>
@@ -9293,7 +10026,7 @@
       </c>
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A104" s="7" t="s">
         <v>22</v>
       </c>
@@ -9305,7 +10038,7 @@
       </c>
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="7" t="s">
@@ -9313,7 +10046,7 @@
       </c>
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A106" s="8"/>
       <c r="B106" s="5"/>
       <c r="C106" s="1" t="s">
@@ -9321,7 +10054,7 @@
       </c>
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A107" s="8"/>
       <c r="B107" s="5"/>
       <c r="C107" s="7" t="s">
@@ -9329,7 +10062,7 @@
       </c>
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A108" s="8"/>
       <c r="B108" s="5"/>
       <c r="C108" s="7" t="s">
@@ -9337,7 +10070,7 @@
       </c>
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A109" s="8"/>
       <c r="B109" s="5"/>
       <c r="C109" s="7" t="s">
@@ -9345,7 +10078,7 @@
       </c>
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A110" s="8"/>
       <c r="B110" s="5"/>
       <c r="C110" s="7" t="s">
@@ -9353,7 +10086,7 @@
       </c>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A111" s="16"/>
       <c r="B111" s="17"/>
       <c r="C111" s="18" t="s">
@@ -9361,14 +10094,14 @@
       </c>
       <c r="D111" s="19"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="20" t="s">
@@ -9378,21 +10111,21 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
       <c r="C115" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A116" s="27"/>
       <c r="B116" s="27"/>
       <c r="C116" s="28" t="s">
@@ -9400,7 +10133,7 @@
       </c>
       <c r="D116" s="29"/>
     </row>
-    <row r="117" spans="1:4" ht="17" thickBot="1">
+    <row r="117" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A117" s="23" t="s">
         <v>31</v>
       </c>
@@ -9416,21 +10149,21 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" collapsed="1">
       <c r="A118" s="64"/>
       <c r="B118" s="64"/>
       <c r="C118" s="64"/>
       <c r="D118" s="64"/>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="B119" s="85"/>
-      <c r="C119" s="85"/>
-      <c r="D119" s="85"/>
-    </row>
-    <row r="120" spans="1:4" ht="17" thickBot="1">
+    <row r="119" spans="1:4" ht="17" thickBot="1">
+      <c r="A119" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B119" s="67"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="67"/>
+    </row>
+    <row r="120" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A120" s="63" t="s">
         <v>0</v>
       </c>
@@ -9438,7 +10171,7 @@
       <c r="C120" s="63"/>
       <c r="D120" s="63"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -9448,7 +10181,7 @@
       </c>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A122" s="4" t="s">
         <v>3</v>
       </c>
@@ -9458,7 +10191,7 @@
       </c>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A123" s="7" t="s">
         <v>5</v>
       </c>
@@ -9473,7 +10206,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A124" s="7" t="s">
         <v>7</v>
       </c>
@@ -9486,7 +10219,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A125" s="7" t="s">
         <v>9</v>
       </c>
@@ -9496,7 +10229,7 @@
       </c>
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A126" s="7" t="s">
         <v>11</v>
       </c>
@@ -9506,7 +10239,7 @@
       </c>
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A127" s="7" t="s">
         <v>13</v>
       </c>
@@ -9518,7 +10251,7 @@
       </c>
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A128" s="7" t="s">
         <v>14</v>
       </c>
@@ -9526,7 +10259,7 @@
       <c r="C128" s="8"/>
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="1:4" ht="17" thickBot="1">
+    <row r="129" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A129" s="9" t="s">
         <v>15</v>
       </c>
@@ -9534,7 +10267,7 @@
       <c r="C129" s="11"/>
       <c r="D129" s="12"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A130" s="4" t="s">
         <v>16</v>
       </c>
@@ -9544,7 +10277,7 @@
       </c>
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A131" s="7" t="s">
         <v>18</v>
       </c>
@@ -9554,7 +10287,7 @@
       </c>
       <c r="D131" s="15"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A132" s="7" t="s">
         <v>20</v>
       </c>
@@ -9566,7 +10299,7 @@
       </c>
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A133" s="7" t="s">
         <v>22</v>
       </c>
@@ -9578,7 +10311,7 @@
       </c>
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="7" t="s">
@@ -9586,7 +10319,7 @@
       </c>
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A135" s="8"/>
       <c r="B135" s="5"/>
       <c r="C135" s="1" t="s">
@@ -9594,7 +10327,7 @@
       </c>
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A136" s="8"/>
       <c r="B136" s="5"/>
       <c r="C136" s="7" t="s">
@@ -9602,7 +10335,7 @@
       </c>
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A137" s="8"/>
       <c r="B137" s="5"/>
       <c r="C137" s="7" t="s">
@@ -9610,7 +10343,7 @@
       </c>
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A138" s="8"/>
       <c r="B138" s="5"/>
       <c r="C138" s="7" t="s">
@@ -9618,7 +10351,7 @@
       </c>
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A139" s="8"/>
       <c r="B139" s="5"/>
       <c r="C139" s="7" t="s">
@@ -9626,7 +10359,7 @@
       </c>
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A140" s="16"/>
       <c r="B140" s="17"/>
       <c r="C140" s="18" t="s">
@@ -9634,14 +10367,14 @@
       </c>
       <c r="D140" s="19"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="20" t="s">
@@ -9651,21 +10384,21 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A145" s="27"/>
       <c r="B145" s="27"/>
       <c r="C145" s="28" t="s">
@@ -9673,7 +10406,7 @@
       </c>
       <c r="D145" s="29"/>
     </row>
-    <row r="146" spans="1:4" ht="17" thickBot="1">
+    <row r="146" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A146" s="23" t="s">
         <v>31</v>
       </c>
@@ -9689,21 +10422,21 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" collapsed="1">
       <c r="A147" s="64"/>
       <c r="B147" s="64"/>
       <c r="C147" s="64"/>
       <c r="D147" s="64"/>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="B148" s="85"/>
-      <c r="C148" s="85"/>
-      <c r="D148" s="85"/>
-    </row>
-    <row r="149" spans="1:4" ht="17" thickBot="1">
+    <row r="148" spans="1:4" ht="17" thickBot="1">
+      <c r="A148" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B148" s="67"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="67"/>
+    </row>
+    <row r="149" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A149" s="65" t="s">
         <v>0</v>
       </c>
@@ -9711,7 +10444,7 @@
       <c r="C149" s="65"/>
       <c r="D149" s="65"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A150" s="38" t="s">
         <v>1</v>
       </c>
@@ -9721,7 +10454,7 @@
       </c>
       <c r="D150" s="40"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A151" s="41" t="s">
         <v>3</v>
       </c>
@@ -9731,7 +10464,7 @@
       </c>
       <c r="D151" s="42"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A152" s="43" t="s">
         <v>5</v>
       </c>
@@ -9746,7 +10479,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A153" s="43" t="s">
         <v>7</v>
       </c>
@@ -9759,7 +10492,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A154" s="43" t="s">
         <v>9</v>
       </c>
@@ -9771,7 +10504,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A155" s="43" t="s">
         <v>11</v>
       </c>
@@ -9781,7 +10514,7 @@
       </c>
       <c r="D155" s="42"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A156" s="43" t="s">
         <v>13</v>
       </c>
@@ -9793,7 +10526,7 @@
       </c>
       <c r="D156" s="42"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A157" s="43" t="s">
         <v>14</v>
       </c>
@@ -9801,7 +10534,7 @@
       <c r="C157" s="44"/>
       <c r="D157" s="42"/>
     </row>
-    <row r="158" spans="1:4" ht="17" thickBot="1">
+    <row r="158" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A158" s="45" t="s">
         <v>15</v>
       </c>
@@ -9809,7 +10542,7 @@
       <c r="C158" s="47"/>
       <c r="D158" s="48"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A159" s="41" t="s">
         <v>16</v>
       </c>
@@ -9819,7 +10552,7 @@
       </c>
       <c r="D159" s="42"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A160" s="43" t="s">
         <v>18</v>
       </c>
@@ -9829,7 +10562,7 @@
       </c>
       <c r="D160" s="51"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A161" s="43" t="s">
         <v>20</v>
       </c>
@@ -9841,7 +10574,7 @@
       </c>
       <c r="D161" s="42"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A162" s="43" t="s">
         <v>22</v>
       </c>
@@ -9853,7 +10586,7 @@
       </c>
       <c r="D162" s="42"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A163" s="41"/>
       <c r="B163" s="35"/>
       <c r="C163" s="43" t="s">
@@ -9861,7 +10594,7 @@
       </c>
       <c r="D163" s="42"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A164" s="44"/>
       <c r="B164" s="35"/>
       <c r="C164" s="38" t="s">
@@ -9869,7 +10602,7 @@
       </c>
       <c r="D164" s="42"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A165" s="44"/>
       <c r="B165" s="35"/>
       <c r="C165" s="43" t="s">
@@ -9877,7 +10610,7 @@
       </c>
       <c r="D165" s="42"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A166" s="44"/>
       <c r="B166" s="35"/>
       <c r="C166" s="43" t="s">
@@ -9885,7 +10618,7 @@
       </c>
       <c r="D166" s="42"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A167" s="44"/>
       <c r="B167" s="35"/>
       <c r="C167" s="43" t="s">
@@ -9893,7 +10626,7 @@
       </c>
       <c r="D167" s="42"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A168" s="44"/>
       <c r="B168" s="35"/>
       <c r="C168" s="43" t="s">
@@ -9901,7 +10634,7 @@
       </c>
       <c r="D168" s="42"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A169" s="52"/>
       <c r="B169" s="53"/>
       <c r="C169" s="54" t="s">
@@ -9909,7 +10642,7 @@
       </c>
       <c r="D169" s="55"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A170" s="56"/>
       <c r="B170" s="56"/>
       <c r="C170" s="57" t="s">
@@ -9917,7 +10650,7 @@
       </c>
       <c r="D170" s="36"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A171" s="58"/>
       <c r="B171" s="58"/>
       <c r="C171" s="20" t="s">
@@ -9927,7 +10660,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A172" s="58"/>
       <c r="B172" s="58"/>
       <c r="C172" s="20" t="s">
@@ -9935,7 +10668,7 @@
       </c>
       <c r="D172" s="36"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A173" s="58"/>
       <c r="B173" s="58"/>
       <c r="C173" s="20" t="s">
@@ -9943,7 +10676,7 @@
       </c>
       <c r="D173" s="36"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" hidden="1" outlineLevel="1">
       <c r="A174" s="59"/>
       <c r="B174" s="59"/>
       <c r="C174" s="28" t="s">
@@ -9951,7 +10684,7 @@
       </c>
       <c r="D174" s="60"/>
     </row>
-    <row r="175" spans="1:4" ht="17" thickBot="1">
+    <row r="175" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A175" s="61" t="s">
         <v>31</v>
       </c>
@@ -9967,24 +10700,24 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" collapsed="1">
       <c r="A176" s="66"/>
       <c r="B176" s="66"/>
       <c r="C176" s="66"/>
       <c r="D176" s="66"/>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="B177" s="85"/>
-      <c r="C177" s="85"/>
-      <c r="D177" s="85"/>
-      <c r="E177" s="85"/>
-      <c r="F177" s="85"/>
-      <c r="G177" s="85"/>
-    </row>
-    <row r="178" spans="1:7" ht="17" thickBot="1">
+      <c r="A177" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B177" s="67"/>
+      <c r="C177" s="67"/>
+      <c r="D177" s="67"/>
+      <c r="E177" s="67"/>
+      <c r="F177" s="67"/>
+      <c r="G177" s="67"/>
+    </row>
+    <row r="178" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A178" s="65" t="s">
         <v>0</v>
       </c>
@@ -9996,7 +10729,7 @@
       </c>
       <c r="G178" s="34"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A179" s="38" t="s">
         <v>1</v>
       </c>
@@ -10012,7 +10745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A180" s="41" t="s">
         <v>3</v>
       </c>
@@ -10028,7 +10761,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A181" s="43" t="s">
         <v>5</v>
       </c>
@@ -10049,7 +10782,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A182" s="43" t="s">
         <v>7</v>
       </c>
@@ -10068,7 +10801,7 @@
       </c>
       <c r="G182" s="70"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A183" s="43" t="s">
         <v>9</v>
       </c>
@@ -10084,7 +10817,7 @@
       </c>
       <c r="G183" s="70"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A184" s="43" t="s">
         <v>11</v>
       </c>
@@ -10098,7 +10831,7 @@
       </c>
       <c r="G184" s="70"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A185" s="43" t="s">
         <v>13</v>
       </c>
@@ -10115,7 +10848,7 @@
       </c>
       <c r="G185" s="70"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A186" s="43" t="s">
         <v>14</v>
       </c>
@@ -10127,7 +10860,7 @@
       </c>
       <c r="G186" s="70"/>
     </row>
-    <row r="187" spans="1:7" ht="17" thickBot="1">
+    <row r="187" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A187" s="45" t="s">
         <v>15</v>
       </c>
@@ -10139,7 +10872,7 @@
       </c>
       <c r="G187" s="70"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A188" s="41" t="s">
         <v>16</v>
       </c>
@@ -10153,7 +10886,7 @@
       </c>
       <c r="G188" s="70"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A189" s="43" t="s">
         <v>18</v>
       </c>
@@ -10167,7 +10900,7 @@
       </c>
       <c r="G189" s="70"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A190" s="43" t="s">
         <v>20</v>
       </c>
@@ -10183,7 +10916,7 @@
       </c>
       <c r="G190" s="70"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A191" s="43" t="s">
         <v>22</v>
       </c>
@@ -10199,7 +10932,7 @@
       </c>
       <c r="G191" s="70"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A192" s="41"/>
       <c r="B192" s="35"/>
       <c r="C192" s="43" t="s">
@@ -10211,7 +10944,7 @@
       </c>
       <c r="G192" s="70"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A193" s="44"/>
       <c r="B193" s="35"/>
       <c r="C193" s="38" t="s">
@@ -10223,7 +10956,7 @@
       </c>
       <c r="G193" s="70"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A194" s="44"/>
       <c r="B194" s="35"/>
       <c r="C194" s="43" t="s">
@@ -10235,7 +10968,7 @@
       </c>
       <c r="G194" s="70"/>
     </row>
-    <row r="195" spans="1:7" ht="17" thickBot="1">
+    <row r="195" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A195" s="44"/>
       <c r="B195" s="35"/>
       <c r="C195" s="43" t="s">
@@ -10247,7 +10980,7 @@
       </c>
       <c r="G195" s="73"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A196" s="44"/>
       <c r="B196" s="35"/>
       <c r="C196" s="43" t="s">
@@ -10255,7 +10988,7 @@
       </c>
       <c r="D196" s="42"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A197" s="44"/>
       <c r="B197" s="35"/>
       <c r="C197" s="43" t="s">
@@ -10263,7 +10996,7 @@
       </c>
       <c r="D197" s="42"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A198" s="52"/>
       <c r="B198" s="53"/>
       <c r="C198" s="54" t="s">
@@ -10271,7 +11004,7 @@
       </c>
       <c r="D198" s="55"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A199" s="56"/>
       <c r="B199" s="56"/>
       <c r="C199" s="57" t="s">
@@ -10279,7 +11012,7 @@
       </c>
       <c r="D199" s="36"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A200" s="58"/>
       <c r="B200" s="58"/>
       <c r="C200" s="20" t="s">
@@ -10289,7 +11022,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A201" s="58"/>
       <c r="B201" s="58"/>
       <c r="C201" s="20" t="s">
@@ -10297,7 +11030,7 @@
       </c>
       <c r="D201" s="36"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A202" s="58"/>
       <c r="B202" s="58"/>
       <c r="C202" s="20" t="s">
@@ -10305,7 +11038,7 @@
       </c>
       <c r="D202" s="36"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" hidden="1" outlineLevel="1">
       <c r="A203" s="59"/>
       <c r="B203" s="59"/>
       <c r="C203" s="28" t="s">
@@ -10315,7 +11048,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="17" thickBot="1">
+    <row r="204" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
       <c r="A204" s="61" t="s">
         <v>31</v>
       </c>
@@ -10331,10 +11064,3011 @@
         <v>11500</v>
       </c>
     </row>
+    <row r="205" spans="1:7" collapsed="1"/>
+    <row r="206" spans="1:7" ht="17" thickBot="1">
+      <c r="A206" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B206" s="67"/>
+      <c r="C206" s="67"/>
+      <c r="D206" s="67"/>
+    </row>
+    <row r="207" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A207" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" s="65"/>
+      <c r="C207" s="65"/>
+      <c r="D207" s="65"/>
+    </row>
+    <row r="208" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A208" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="39"/>
+      <c r="C208" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" s="40"/>
+    </row>
+    <row r="209" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A209" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" s="35"/>
+      <c r="C209" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" s="42"/>
+    </row>
+    <row r="210" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A210" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="32">
+        <f>2450-1600+3000-150</f>
+        <v>3700</v>
+      </c>
+      <c r="C210" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="42">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A211" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="35">
+        <v>1300</v>
+      </c>
+      <c r="C211" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="42">
+        <f>2400-1600</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A212" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" s="35"/>
+      <c r="C212" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="42">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A213" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" s="32">
+        <v>150</v>
+      </c>
+      <c r="C213" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="42"/>
+    </row>
+    <row r="214" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A214" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="35">
+        <f>3600-3100</f>
+        <v>500</v>
+      </c>
+      <c r="C214" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" s="42"/>
+    </row>
+    <row r="215" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A215" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" s="35"/>
+      <c r="C215" s="44"/>
+      <c r="D215" s="42"/>
+    </row>
+    <row r="216" spans="1:4" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A216" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B216" s="46"/>
+      <c r="C216" s="47"/>
+      <c r="D216" s="48"/>
+    </row>
+    <row r="217" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A217" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B217" s="35"/>
+      <c r="C217" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" s="42"/>
+    </row>
+    <row r="218" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A218" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218" s="50"/>
+      <c r="C218" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D218" s="51"/>
+    </row>
+    <row r="219" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A219" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="35">
+        <v>5700</v>
+      </c>
+      <c r="C219" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D219" s="42"/>
+    </row>
+    <row r="220" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A220" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="35">
+        <v>150</v>
+      </c>
+      <c r="C220" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D220" s="42"/>
+    </row>
+    <row r="221" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A221" s="41"/>
+      <c r="B221" s="35"/>
+      <c r="C221" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D221" s="42"/>
+    </row>
+    <row r="222" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A222" s="44"/>
+      <c r="B222" s="35"/>
+      <c r="C222" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D222" s="42"/>
+    </row>
+    <row r="223" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A223" s="44"/>
+      <c r="B223" s="35"/>
+      <c r="C223" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D223" s="42"/>
+    </row>
+    <row r="224" spans="1:4" hidden="1" outlineLevel="1">
+      <c r="A224" s="44"/>
+      <c r="B224" s="35"/>
+      <c r="C224" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D224" s="42"/>
+    </row>
+    <row r="225" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A225" s="44"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" s="42"/>
+    </row>
+    <row r="226" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A226" s="44"/>
+      <c r="B226" s="35"/>
+      <c r="C226" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D226" s="42"/>
+    </row>
+    <row r="227" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A227" s="52"/>
+      <c r="B227" s="53"/>
+      <c r="C227" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D227" s="55"/>
+    </row>
+    <row r="228" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A228" s="56"/>
+      <c r="B228" s="56"/>
+      <c r="C228" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D228" s="36"/>
+    </row>
+    <row r="229" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A229" s="58"/>
+      <c r="B229" s="58"/>
+      <c r="C229" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D229" s="36">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A230" s="58"/>
+      <c r="B230" s="58"/>
+      <c r="C230" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D230" s="36"/>
+    </row>
+    <row r="231" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A231" s="58"/>
+      <c r="B231" s="58"/>
+      <c r="C231" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" s="36"/>
+    </row>
+    <row r="232" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A232" s="59"/>
+      <c r="B232" s="59"/>
+      <c r="C232" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D232" s="60">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A233" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B233" s="61">
+        <f>SUM(B208:B226)</f>
+        <v>11500</v>
+      </c>
+      <c r="C233" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D233" s="62">
+        <f>SUM(D208:D232)</f>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" collapsed="1">
+      <c r="A234" s="64"/>
+      <c r="B234" s="64"/>
+      <c r="C234" s="64"/>
+      <c r="D234" s="64"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="B235" s="67"/>
+      <c r="C235" s="67"/>
+      <c r="D235" s="67"/>
+      <c r="E235" s="67"/>
+      <c r="F235" s="67"/>
+      <c r="G235" s="67"/>
+    </row>
+    <row r="236" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A236" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" s="65"/>
+      <c r="C236" s="65"/>
+      <c r="D236" s="65"/>
+      <c r="F236" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G236" s="34"/>
+    </row>
+    <row r="237" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A237" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="39"/>
+      <c r="C237" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D237" s="40"/>
+      <c r="F237" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A238" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" s="35"/>
+      <c r="C238" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238" s="42"/>
+      <c r="F238" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="G238" s="77">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A239" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="32">
+        <f>2450-1600+3000-150-50</f>
+        <v>3650</v>
+      </c>
+      <c r="C239" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" s="42">
+        <v>5100</v>
+      </c>
+      <c r="F239" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="G239" s="77">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A240" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="35">
+        <v>1300</v>
+      </c>
+      <c r="C240" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="42">
+        <f>2400-1600</f>
+        <v>800</v>
+      </c>
+      <c r="F240" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G240" s="70"/>
+    </row>
+    <row r="241" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A241" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B241" s="35"/>
+      <c r="C241" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D241" s="42">
+        <v>1200</v>
+      </c>
+      <c r="F241" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="G241" s="70"/>
+    </row>
+    <row r="242" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A242" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" s="35">
+        <v>150</v>
+      </c>
+      <c r="C242" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="42"/>
+      <c r="F242" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="G242" s="75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A243" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" s="35">
+        <f>3600-3100</f>
+        <v>500</v>
+      </c>
+      <c r="C243" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" s="42"/>
+      <c r="F243" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G243" s="70"/>
+    </row>
+    <row r="244" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A244" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B244" s="35"/>
+      <c r="C244" s="44"/>
+      <c r="D244" s="42"/>
+      <c r="F244" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="G244" s="70"/>
+    </row>
+    <row r="245" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A245" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B245" s="46"/>
+      <c r="C245" s="47"/>
+      <c r="D245" s="48"/>
+      <c r="F245" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="G245" s="70"/>
+    </row>
+    <row r="246" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A246" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B246" s="35"/>
+      <c r="C246" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D246" s="42"/>
+      <c r="F246" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="G246" s="70"/>
+    </row>
+    <row r="247" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A247" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B247" s="50"/>
+      <c r="C247" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D247" s="51"/>
+      <c r="F247" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="G247" s="70"/>
+    </row>
+    <row r="248" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A248" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" s="35">
+        <v>5700</v>
+      </c>
+      <c r="C248" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" s="42"/>
+      <c r="F248" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G248" s="70"/>
+    </row>
+    <row r="249" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A249" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" s="35">
+        <v>150</v>
+      </c>
+      <c r="C249" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D249" s="42"/>
+      <c r="F249" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="G249" s="70"/>
+    </row>
+    <row r="250" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A250" s="41"/>
+      <c r="B250" s="35"/>
+      <c r="C250" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D250" s="42"/>
+      <c r="F250" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="G250" s="70"/>
+    </row>
+    <row r="251" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A251" s="44"/>
+      <c r="B251" s="35"/>
+      <c r="C251" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D251" s="42"/>
+      <c r="F251" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="G251" s="70"/>
+    </row>
+    <row r="252" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A252" s="44"/>
+      <c r="B252" s="35"/>
+      <c r="C252" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D252" s="42"/>
+      <c r="F252" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="G252" s="70"/>
+    </row>
+    <row r="253" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A253" s="44"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D253" s="42"/>
+      <c r="F253" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="G253" s="73"/>
+    </row>
+    <row r="254" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A254" s="44"/>
+      <c r="B254" s="35"/>
+      <c r="C254" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" s="42"/>
+    </row>
+    <row r="255" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A255" s="44"/>
+      <c r="B255" s="35"/>
+      <c r="C255" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D255" s="42"/>
+    </row>
+    <row r="256" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A256" s="52"/>
+      <c r="B256" s="53"/>
+      <c r="C256" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D256" s="55"/>
+    </row>
+    <row r="257" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A257" s="56"/>
+      <c r="B257" s="56"/>
+      <c r="C257" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D257" s="36"/>
+    </row>
+    <row r="258" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A258" s="58"/>
+      <c r="B258" s="58"/>
+      <c r="C258" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D258" s="36">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A259" s="58"/>
+      <c r="B259" s="58"/>
+      <c r="C259" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D259" s="36"/>
+    </row>
+    <row r="260" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A260" s="58"/>
+      <c r="B260" s="58"/>
+      <c r="C260" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" s="36"/>
+    </row>
+    <row r="261" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A261" s="59"/>
+      <c r="B261" s="59"/>
+      <c r="C261" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D261" s="60">
+        <f>1200-50</f>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A262" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B262" s="61">
+        <f>SUM(B237:B255)</f>
+        <v>11450</v>
+      </c>
+      <c r="C262" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D262" s="62">
+        <f>SUM(D237:D261)</f>
+        <v>11450</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" collapsed="1">
+      <c r="A263" s="78"/>
+      <c r="B263" s="78"/>
+      <c r="C263" s="78"/>
+      <c r="D263" s="78"/>
+      <c r="E263" s="78"/>
+      <c r="F263" s="78"/>
+      <c r="G263" s="78"/>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B264" s="67"/>
+      <c r="C264" s="67"/>
+      <c r="D264" s="67"/>
+      <c r="E264" s="67"/>
+      <c r="F264" s="67"/>
+      <c r="G264" s="67"/>
+    </row>
+    <row r="265" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A265" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" s="65"/>
+      <c r="C265" s="65"/>
+      <c r="D265" s="65"/>
+      <c r="F265" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G265" s="34"/>
+    </row>
+    <row r="266" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A266" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B266" s="39"/>
+      <c r="C266" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266" s="40"/>
+      <c r="F266" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G266" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A267" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B267" s="35"/>
+      <c r="C267" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D267" s="42"/>
+      <c r="F267" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G267" s="77">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A268" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" s="32">
+        <f>2450-1600+3000-150-50-400</f>
+        <v>3250</v>
+      </c>
+      <c r="C268" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" s="42">
+        <v>5100</v>
+      </c>
+      <c r="E268" s="36"/>
+      <c r="F268" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="G268" s="77">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A269" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B269" s="35">
+        <v>1300</v>
+      </c>
+      <c r="C269" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="42">
+        <f>2400-1600</f>
+        <v>800</v>
+      </c>
+      <c r="E269" s="36"/>
+      <c r="F269" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G269" s="77"/>
+    </row>
+    <row r="270" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A270" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B270" s="35"/>
+      <c r="C270" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" s="42">
+        <v>1200</v>
+      </c>
+      <c r="E270" s="36"/>
+      <c r="F270" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="G270" s="75">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A271" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" s="35">
+        <v>150</v>
+      </c>
+      <c r="C271" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D271" s="42"/>
+      <c r="E271" s="36"/>
+      <c r="F271" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G271" s="75">
+        <f>50+150</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A272" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B272" s="35">
+        <f>3600-3100</f>
+        <v>500</v>
+      </c>
+      <c r="C272" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" s="42"/>
+      <c r="E272" s="36"/>
+      <c r="F272" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="G272" s="77"/>
+    </row>
+    <row r="273" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A273" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B273" s="35"/>
+      <c r="C273" s="44"/>
+      <c r="D273" s="42"/>
+      <c r="E273" s="36"/>
+      <c r="F273" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G273" s="77"/>
+    </row>
+    <row r="274" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A274" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B274" s="46"/>
+      <c r="C274" s="47"/>
+      <c r="D274" s="48"/>
+      <c r="E274" s="36"/>
+      <c r="F274" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G274" s="77"/>
+    </row>
+    <row r="275" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A275" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B275" s="35"/>
+      <c r="C275" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D275" s="42"/>
+      <c r="E275" s="36"/>
+      <c r="F275" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G275" s="77"/>
+    </row>
+    <row r="276" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A276" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B276" s="50"/>
+      <c r="C276" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D276" s="51"/>
+      <c r="E276" s="36"/>
+      <c r="F276" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="G276" s="77"/>
+    </row>
+    <row r="277" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A277" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B277" s="35">
+        <v>5700</v>
+      </c>
+      <c r="C277" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" s="42"/>
+      <c r="E277" s="36"/>
+      <c r="F277" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="G277" s="77"/>
+    </row>
+    <row r="278" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A278" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B278" s="35">
+        <v>150</v>
+      </c>
+      <c r="C278" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D278" s="42"/>
+      <c r="E278" s="36"/>
+      <c r="F278" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G278" s="77"/>
+    </row>
+    <row r="279" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A279" s="41"/>
+      <c r="B279" s="35"/>
+      <c r="C279" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D279" s="42"/>
+      <c r="E279" s="36"/>
+      <c r="F279" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="G279" s="77"/>
+    </row>
+    <row r="280" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A280" s="44"/>
+      <c r="B280" s="35"/>
+      <c r="C280" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D280" s="42"/>
+      <c r="E280" s="36"/>
+      <c r="F280" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G280" s="77"/>
+    </row>
+    <row r="281" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A281" s="44"/>
+      <c r="B281" s="35"/>
+      <c r="C281" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D281" s="42"/>
+      <c r="E281" s="36"/>
+      <c r="F281" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G281" s="77"/>
+    </row>
+    <row r="282" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A282" s="44"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D282" s="42"/>
+      <c r="E282" s="36"/>
+      <c r="F282" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="G282" s="82"/>
+    </row>
+    <row r="283" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A283" s="44"/>
+      <c r="B283" s="35"/>
+      <c r="C283" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" s="42"/>
+      <c r="E283" s="36"/>
+    </row>
+    <row r="284" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A284" s="44"/>
+      <c r="B284" s="35"/>
+      <c r="C284" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D284" s="42"/>
+      <c r="E284" s="36"/>
+      <c r="F284" s="36"/>
+      <c r="G284" s="36"/>
+    </row>
+    <row r="285" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A285" s="52"/>
+      <c r="B285" s="53"/>
+      <c r="C285" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D285" s="55"/>
+      <c r="E285" s="36"/>
+      <c r="F285" s="36"/>
+      <c r="G285" s="36"/>
+    </row>
+    <row r="286" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A286" s="56"/>
+      <c r="B286" s="56"/>
+      <c r="C286" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D286" s="36"/>
+      <c r="E286" s="36"/>
+      <c r="F286" s="36"/>
+      <c r="G286" s="36"/>
+    </row>
+    <row r="287" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A287" s="58"/>
+      <c r="B287" s="58"/>
+      <c r="C287" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D287" s="36">
+        <v>3200</v>
+      </c>
+      <c r="E287" s="36"/>
+      <c r="F287" s="36"/>
+      <c r="G287" s="36"/>
+    </row>
+    <row r="288" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A288" s="58"/>
+      <c r="B288" s="58"/>
+      <c r="C288" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D288" s="36"/>
+      <c r="E288" s="36"/>
+      <c r="F288" s="36"/>
+      <c r="G288" s="36"/>
+    </row>
+    <row r="289" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A289" s="58"/>
+      <c r="B289" s="58"/>
+      <c r="C289" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289" s="36"/>
+      <c r="E289" s="36"/>
+      <c r="F289" s="36"/>
+      <c r="G289" s="36"/>
+    </row>
+    <row r="290" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A290" s="59"/>
+      <c r="B290" s="59"/>
+      <c r="C290" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D290" s="76">
+        <f>1200-50-400</f>
+        <v>750</v>
+      </c>
+      <c r="E290" s="36"/>
+      <c r="F290" s="36"/>
+      <c r="G290" s="36"/>
+    </row>
+    <row r="291" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A291" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B291" s="61">
+        <f>SUM(B266:B284)</f>
+        <v>11050</v>
+      </c>
+      <c r="C291" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D291" s="62">
+        <f>SUM(D266:D290)</f>
+        <v>11050</v>
+      </c>
+      <c r="E291" s="36"/>
+      <c r="F291" s="36"/>
+      <c r="G291" s="36"/>
+    </row>
+    <row r="292" spans="1:7" collapsed="1">
+      <c r="A292" s="78"/>
+      <c r="B292" s="78"/>
+      <c r="C292" s="78"/>
+      <c r="D292" s="78"/>
+      <c r="E292" s="78"/>
+      <c r="F292" s="78"/>
+      <c r="G292" s="78"/>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B293" s="67"/>
+      <c r="C293" s="67"/>
+      <c r="D293" s="67"/>
+      <c r="E293" s="67"/>
+      <c r="F293" s="67"/>
+      <c r="G293" s="67"/>
+    </row>
+    <row r="294" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A294" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294" s="65"/>
+      <c r="C294" s="65"/>
+      <c r="D294" s="65"/>
+      <c r="F294" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G294" s="34"/>
+    </row>
+    <row r="295" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A295" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B295" s="39"/>
+      <c r="C295" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D295" s="40"/>
+      <c r="E295" s="36"/>
+      <c r="F295" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G295" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A296" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B296" s="35"/>
+      <c r="C296" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D296" s="42"/>
+      <c r="E296" s="36"/>
+      <c r="F296" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G296" s="77">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A297" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" s="32">
+        <f>2450-1600+3000-150-50-400-130</f>
+        <v>3120</v>
+      </c>
+      <c r="C297" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" s="42">
+        <v>5100</v>
+      </c>
+      <c r="E297" s="36"/>
+      <c r="F297" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="G297" s="77">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A298" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B298" s="35">
+        <v>1300</v>
+      </c>
+      <c r="C298" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="42">
+        <f>2400-1600</f>
+        <v>800</v>
+      </c>
+      <c r="E298" s="36"/>
+      <c r="F298" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G298" s="77"/>
+    </row>
+    <row r="299" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A299" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B299" s="35"/>
+      <c r="C299" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D299" s="42">
+        <v>1200</v>
+      </c>
+      <c r="E299" s="36"/>
+      <c r="F299" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="G299" s="77">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A300" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B300" s="35">
+        <v>150</v>
+      </c>
+      <c r="C300" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="42"/>
+      <c r="E300" s="36"/>
+      <c r="F300" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G300" s="77">
+        <f>50+150</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A301" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B301" s="35">
+        <f>3600-3100</f>
+        <v>500</v>
+      </c>
+      <c r="C301" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" s="42"/>
+      <c r="E301" s="36"/>
+      <c r="F301" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="G301" s="75">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A302" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" s="35"/>
+      <c r="C302" s="44"/>
+      <c r="D302" s="42"/>
+      <c r="E302" s="36"/>
+      <c r="F302" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G302" s="77"/>
+    </row>
+    <row r="303" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A303" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303" s="46"/>
+      <c r="C303" s="47"/>
+      <c r="D303" s="48"/>
+      <c r="E303" s="36"/>
+      <c r="F303" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G303" s="77"/>
+    </row>
+    <row r="304" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A304" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B304" s="35"/>
+      <c r="C304" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D304" s="42"/>
+      <c r="E304" s="36"/>
+      <c r="F304" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G304" s="77"/>
+    </row>
+    <row r="305" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A305" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B305" s="50"/>
+      <c r="C305" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305" s="51"/>
+      <c r="E305" s="36"/>
+      <c r="F305" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="G305" s="77"/>
+    </row>
+    <row r="306" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A306" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B306" s="35">
+        <v>5700</v>
+      </c>
+      <c r="C306" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306" s="42"/>
+      <c r="E306" s="36"/>
+      <c r="F306" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="G306" s="77"/>
+    </row>
+    <row r="307" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A307" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B307" s="35">
+        <v>150</v>
+      </c>
+      <c r="C307" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D307" s="42"/>
+      <c r="E307" s="36"/>
+      <c r="F307" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G307" s="77"/>
+    </row>
+    <row r="308" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A308" s="41"/>
+      <c r="B308" s="35"/>
+      <c r="C308" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D308" s="42"/>
+      <c r="E308" s="36"/>
+      <c r="F308" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="G308" s="77"/>
+    </row>
+    <row r="309" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A309" s="44"/>
+      <c r="B309" s="35"/>
+      <c r="C309" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D309" s="42"/>
+      <c r="E309" s="36"/>
+      <c r="F309" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G309" s="77"/>
+    </row>
+    <row r="310" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A310" s="44"/>
+      <c r="B310" s="35"/>
+      <c r="C310" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D310" s="42"/>
+      <c r="E310" s="36"/>
+      <c r="F310" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G310" s="77"/>
+    </row>
+    <row r="311" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A311" s="44"/>
+      <c r="B311" s="35"/>
+      <c r="C311" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D311" s="42"/>
+      <c r="E311" s="36"/>
+      <c r="F311" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="G311" s="82"/>
+    </row>
+    <row r="312" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A312" s="44"/>
+      <c r="B312" s="35"/>
+      <c r="C312" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D312" s="42"/>
+      <c r="E312" s="36"/>
+      <c r="F312" s="36"/>
+      <c r="G312" s="36"/>
+    </row>
+    <row r="313" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A313" s="44"/>
+      <c r="B313" s="35"/>
+      <c r="C313" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D313" s="42"/>
+      <c r="E313" s="36"/>
+      <c r="F313" s="36"/>
+      <c r="G313" s="36"/>
+    </row>
+    <row r="314" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A314" s="52"/>
+      <c r="B314" s="53"/>
+      <c r="C314" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D314" s="55"/>
+      <c r="E314" s="36"/>
+      <c r="F314" s="36"/>
+      <c r="G314" s="36"/>
+    </row>
+    <row r="315" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A315" s="56"/>
+      <c r="B315" s="56"/>
+      <c r="C315" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D315" s="36"/>
+      <c r="E315" s="36"/>
+      <c r="F315" s="36"/>
+      <c r="G315" s="36"/>
+    </row>
+    <row r="316" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A316" s="58"/>
+      <c r="B316" s="58"/>
+      <c r="C316" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D316" s="36">
+        <v>3200</v>
+      </c>
+      <c r="E316" s="36"/>
+      <c r="F316" s="36"/>
+      <c r="G316" s="36"/>
+    </row>
+    <row r="317" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A317" s="58"/>
+      <c r="B317" s="58"/>
+      <c r="C317" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D317" s="36"/>
+      <c r="E317" s="36"/>
+      <c r="F317" s="36"/>
+      <c r="G317" s="36"/>
+    </row>
+    <row r="318" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A318" s="58"/>
+      <c r="B318" s="58"/>
+      <c r="C318" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D318" s="36"/>
+      <c r="E318" s="36"/>
+      <c r="F318" s="36"/>
+      <c r="G318" s="36"/>
+    </row>
+    <row r="319" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A319" s="59"/>
+      <c r="B319" s="59"/>
+      <c r="C319" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D319" s="76">
+        <f>1200-50-400-130</f>
+        <v>620</v>
+      </c>
+      <c r="E319" s="36"/>
+      <c r="F319" s="36"/>
+      <c r="G319" s="36"/>
+    </row>
+    <row r="320" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A320" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B320" s="61">
+        <f>SUM(B295:B313)</f>
+        <v>10920</v>
+      </c>
+      <c r="C320" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D320" s="62">
+        <f>SUM(D295:D319)</f>
+        <v>10920</v>
+      </c>
+      <c r="E320" s="36"/>
+      <c r="F320" s="36"/>
+      <c r="G320" s="36"/>
+    </row>
+    <row r="321" spans="1:7" collapsed="1">
+      <c r="A321" s="78"/>
+      <c r="B321" s="78"/>
+      <c r="C321" s="78"/>
+      <c r="D321" s="78"/>
+      <c r="E321" s="78"/>
+      <c r="F321" s="78"/>
+      <c r="G321" s="78"/>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="B322" s="67"/>
+      <c r="C322" s="67"/>
+      <c r="D322" s="67"/>
+      <c r="E322" s="67"/>
+      <c r="F322" s="67"/>
+      <c r="G322" s="67"/>
+    </row>
+    <row r="323" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A323" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B323" s="65"/>
+      <c r="C323" s="65"/>
+      <c r="D323" s="65"/>
+      <c r="F323" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G323" s="34"/>
+    </row>
+    <row r="324" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A324" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B324" s="39"/>
+      <c r="C324" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D324" s="40"/>
+      <c r="E324" s="36"/>
+      <c r="F324" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G324" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A325" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B325" s="35"/>
+      <c r="C325" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D325" s="42"/>
+      <c r="E325" s="36"/>
+      <c r="F325" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G325" s="77">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A326" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" s="32">
+        <f>2450-1600+3000-150-50-400-130-100</f>
+        <v>3020</v>
+      </c>
+      <c r="C326" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" s="42">
+        <v>5100</v>
+      </c>
+      <c r="E326" s="36"/>
+      <c r="F326" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="G326" s="77">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A327" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B327" s="35">
+        <v>1300</v>
+      </c>
+      <c r="C327" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D327" s="42">
+        <f>2400-1600</f>
+        <v>800</v>
+      </c>
+      <c r="E327" s="36"/>
+      <c r="F327" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G327" s="77"/>
+    </row>
+    <row r="328" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A328" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" s="35"/>
+      <c r="C328" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D328" s="42">
+        <v>1200</v>
+      </c>
+      <c r="E328" s="36"/>
+      <c r="F328" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="G328" s="77">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A329" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B329" s="35">
+        <v>150</v>
+      </c>
+      <c r="C329" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D329" s="42"/>
+      <c r="E329" s="36"/>
+      <c r="F329" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G329" s="77">
+        <f>50+150</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A330" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B330" s="35">
+        <f>3600-3100</f>
+        <v>500</v>
+      </c>
+      <c r="C330" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D330" s="42"/>
+      <c r="E330" s="36"/>
+      <c r="F330" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="G330" s="77">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A331" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B331" s="35"/>
+      <c r="C331" s="44"/>
+      <c r="D331" s="42"/>
+      <c r="E331" s="36"/>
+      <c r="F331" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G331" s="77"/>
+    </row>
+    <row r="332" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A332" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332" s="46"/>
+      <c r="C332" s="47"/>
+      <c r="D332" s="48"/>
+      <c r="E332" s="36"/>
+      <c r="F332" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G332" s="77"/>
+    </row>
+    <row r="333" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A333" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B333" s="35"/>
+      <c r="C333" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D333" s="42"/>
+      <c r="E333" s="36"/>
+      <c r="F333" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G333" s="77"/>
+    </row>
+    <row r="334" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A334" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B334" s="50"/>
+      <c r="C334" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D334" s="51"/>
+      <c r="E334" s="36"/>
+      <c r="F334" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="G334" s="77"/>
+    </row>
+    <row r="335" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A335" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B335" s="35">
+        <v>5700</v>
+      </c>
+      <c r="C335" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D335" s="42"/>
+      <c r="E335" s="36"/>
+      <c r="F335" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="G335" s="77"/>
+    </row>
+    <row r="336" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A336" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B336" s="35">
+        <v>150</v>
+      </c>
+      <c r="C336" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D336" s="42"/>
+      <c r="E336" s="36"/>
+      <c r="F336" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G336" s="77"/>
+    </row>
+    <row r="337" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A337" s="41"/>
+      <c r="B337" s="35"/>
+      <c r="C337" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D337" s="42"/>
+      <c r="E337" s="36"/>
+      <c r="F337" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="G337" s="77"/>
+    </row>
+    <row r="338" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A338" s="44"/>
+      <c r="B338" s="35"/>
+      <c r="C338" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D338" s="42"/>
+      <c r="E338" s="36"/>
+      <c r="F338" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G338" s="77"/>
+    </row>
+    <row r="339" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A339" s="44"/>
+      <c r="B339" s="35"/>
+      <c r="C339" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D339" s="42"/>
+      <c r="E339" s="36"/>
+      <c r="F339" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G339" s="75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A340" s="44"/>
+      <c r="B340" s="35"/>
+      <c r="C340" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D340" s="42"/>
+      <c r="E340" s="36"/>
+      <c r="F340" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="G340" s="84">
+        <f>G325-SUM(G326:G331)-G339</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A341" s="44"/>
+      <c r="B341" s="35"/>
+      <c r="C341" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D341" s="42"/>
+      <c r="E341" s="36"/>
+      <c r="F341" s="36"/>
+      <c r="G341" s="36"/>
+    </row>
+    <row r="342" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A342" s="44"/>
+      <c r="B342" s="35"/>
+      <c r="C342" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D342" s="42"/>
+      <c r="E342" s="36"/>
+      <c r="F342" s="36"/>
+      <c r="G342" s="36"/>
+    </row>
+    <row r="343" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A343" s="52"/>
+      <c r="B343" s="53"/>
+      <c r="C343" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D343" s="55"/>
+      <c r="E343" s="36"/>
+      <c r="F343" s="36"/>
+      <c r="G343" s="36"/>
+    </row>
+    <row r="344" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A344" s="56"/>
+      <c r="B344" s="56"/>
+      <c r="C344" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D344" s="36"/>
+      <c r="E344" s="36"/>
+      <c r="F344" s="36"/>
+      <c r="G344" s="36"/>
+    </row>
+    <row r="345" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A345" s="58"/>
+      <c r="B345" s="58"/>
+      <c r="C345" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D345" s="36">
+        <v>3200</v>
+      </c>
+      <c r="E345" s="36"/>
+      <c r="F345" s="36"/>
+      <c r="G345" s="36"/>
+    </row>
+    <row r="346" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A346" s="58"/>
+      <c r="B346" s="58"/>
+      <c r="C346" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D346" s="36"/>
+      <c r="E346" s="36"/>
+      <c r="F346" s="36"/>
+      <c r="G346" s="36"/>
+    </row>
+    <row r="347" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A347" s="58"/>
+      <c r="B347" s="58"/>
+      <c r="C347" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D347" s="36"/>
+      <c r="E347" s="36"/>
+      <c r="F347" s="36"/>
+      <c r="G347" s="36"/>
+    </row>
+    <row r="348" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A348" s="59"/>
+      <c r="B348" s="59"/>
+      <c r="C348" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D348" s="76">
+        <f>1200-50-400-130-100</f>
+        <v>520</v>
+      </c>
+      <c r="E348" s="36"/>
+      <c r="F348" s="36"/>
+      <c r="G348" s="36"/>
+    </row>
+    <row r="349" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A349" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B349" s="61">
+        <f>SUM(B324:B342)</f>
+        <v>10820</v>
+      </c>
+      <c r="C349" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D349" s="62">
+        <f>SUM(D324:D348)</f>
+        <v>10820</v>
+      </c>
+      <c r="E349" s="36"/>
+      <c r="F349" s="36"/>
+      <c r="G349" s="36"/>
+    </row>
+    <row r="350" spans="1:7" collapsed="1">
+      <c r="A350" s="78"/>
+      <c r="B350" s="78"/>
+      <c r="C350" s="78"/>
+      <c r="D350" s="78"/>
+      <c r="E350" s="78"/>
+      <c r="F350" s="78"/>
+      <c r="G350" s="78"/>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B351" s="67"/>
+      <c r="C351" s="67"/>
+      <c r="D351" s="67"/>
+      <c r="E351" s="67"/>
+      <c r="F351" s="67"/>
+      <c r="G351" s="67"/>
+    </row>
+    <row r="352" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A352" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B352" s="65"/>
+      <c r="C352" s="65"/>
+      <c r="D352" s="65"/>
+      <c r="E352" s="36"/>
+      <c r="F352" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G352" s="37"/>
+    </row>
+    <row r="353" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A353" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B353" s="39"/>
+      <c r="C353" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D353" s="40"/>
+      <c r="E353" s="36"/>
+      <c r="F353" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G353" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A354" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B354" s="35"/>
+      <c r="C354" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D354" s="42"/>
+      <c r="E354" s="36"/>
+      <c r="F354" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G354" s="77">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A355" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B355" s="32">
+        <f>2450-1600+3000-150-50-400-130-100-100</f>
+        <v>2920</v>
+      </c>
+      <c r="C355" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" s="42">
+        <v>5100</v>
+      </c>
+      <c r="E355" s="36"/>
+      <c r="F355" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="G355" s="77">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A356" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B356" s="35">
+        <v>1300</v>
+      </c>
+      <c r="C356" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" s="42">
+        <f>2400-1600</f>
+        <v>800</v>
+      </c>
+      <c r="E356" s="36"/>
+      <c r="F356" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G356" s="77"/>
+    </row>
+    <row r="357" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A357" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" s="35"/>
+      <c r="C357" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D357" s="42">
+        <v>1200</v>
+      </c>
+      <c r="E357" s="36"/>
+      <c r="F357" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="G357" s="77">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A358" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B358" s="35">
+        <v>150</v>
+      </c>
+      <c r="C358" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D358" s="42"/>
+      <c r="E358" s="36"/>
+      <c r="F358" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G358" s="77">
+        <f>50+150</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A359" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B359" s="35">
+        <f>3600-3100</f>
+        <v>500</v>
+      </c>
+      <c r="C359" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D359" s="42"/>
+      <c r="E359" s="36"/>
+      <c r="F359" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="G359" s="77">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A360" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B360" s="35"/>
+      <c r="C360" s="44"/>
+      <c r="D360" s="42"/>
+      <c r="E360" s="36"/>
+      <c r="F360" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G360" s="77"/>
+    </row>
+    <row r="361" spans="1:7" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A361" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B361" s="46"/>
+      <c r="C361" s="47"/>
+      <c r="D361" s="48"/>
+      <c r="E361" s="36"/>
+      <c r="F361" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G361" s="77"/>
+    </row>
+    <row r="362" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A362" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B362" s="35"/>
+      <c r="C362" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D362" s="42"/>
+      <c r="E362" s="36"/>
+      <c r="F362" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G362" s="77"/>
+    </row>
+    <row r="363" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A363" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B363" s="50"/>
+      <c r="C363" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D363" s="51"/>
+      <c r="E363" s="36"/>
+      <c r="F363" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="G363" s="77"/>
+    </row>
+    <row r="364" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A364" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B364" s="35">
+        <v>5700</v>
+      </c>
+      <c r="C364" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D364" s="42"/>
+      <c r="E364" s="36"/>
+      <c r="F364" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="G364" s="77"/>
+    </row>
+    <row r="365" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A365" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B365" s="35">
+        <v>150</v>
+      </c>
+      <c r="C365" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D365" s="42"/>
+      <c r="E365" s="36"/>
+      <c r="F365" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G365" s="77"/>
+    </row>
+    <row r="366" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A366" s="41"/>
+      <c r="B366" s="35"/>
+      <c r="C366" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D366" s="42"/>
+      <c r="E366" s="36"/>
+      <c r="F366" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="G366" s="77"/>
+    </row>
+    <row r="367" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A367" s="44"/>
+      <c r="B367" s="35"/>
+      <c r="C367" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D367" s="42"/>
+      <c r="E367" s="36"/>
+      <c r="F367" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G367" s="77"/>
+    </row>
+    <row r="368" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="A368" s="44"/>
+      <c r="B368" s="35"/>
+      <c r="C368" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D368" s="42"/>
+      <c r="E368" s="36"/>
+      <c r="F368" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G368" s="77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A369" s="44"/>
+      <c r="B369" s="35"/>
+      <c r="C369" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D369" s="42"/>
+      <c r="E369" s="36"/>
+      <c r="F369" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="G369" s="82">
+        <f>G354-SUM(G355:G360)-G368</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" hidden="1" outlineLevel="1">
+      <c r="A370" s="44"/>
+      <c r="B370" s="35"/>
+      <c r="C370" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D370" s="42"/>
+      <c r="E370" s="36"/>
+      <c r="F370" s="36"/>
+      <c r="G370" s="36"/>
+    </row>
+    <row r="371" spans="1:10" hidden="1" outlineLevel="1">
+      <c r="A371" s="44"/>
+      <c r="B371" s="35"/>
+      <c r="C371" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D371" s="42"/>
+      <c r="E371" s="36"/>
+      <c r="F371" s="36"/>
+      <c r="G371" s="36"/>
+    </row>
+    <row r="372" spans="1:10" hidden="1" outlineLevel="1">
+      <c r="A372" s="52"/>
+      <c r="B372" s="53"/>
+      <c r="C372" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D372" s="55"/>
+      <c r="E372" s="36"/>
+      <c r="F372" s="36"/>
+      <c r="G372" s="36"/>
+    </row>
+    <row r="373" spans="1:10" hidden="1" outlineLevel="1">
+      <c r="A373" s="56"/>
+      <c r="B373" s="56"/>
+      <c r="C373" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D373" s="36"/>
+      <c r="E373" s="36"/>
+      <c r="F373" s="36"/>
+      <c r="G373" s="36"/>
+    </row>
+    <row r="374" spans="1:10" hidden="1" outlineLevel="1">
+      <c r="A374" s="58"/>
+      <c r="B374" s="58"/>
+      <c r="C374" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D374" s="36">
+        <v>3200</v>
+      </c>
+      <c r="E374" s="36"/>
+      <c r="F374" s="36"/>
+      <c r="G374" s="36"/>
+    </row>
+    <row r="375" spans="1:10" hidden="1" outlineLevel="1">
+      <c r="A375" s="58"/>
+      <c r="B375" s="58"/>
+      <c r="C375" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D375" s="36"/>
+      <c r="E375" s="36"/>
+      <c r="F375" s="36"/>
+      <c r="G375" s="36"/>
+    </row>
+    <row r="376" spans="1:10" hidden="1" outlineLevel="1">
+      <c r="A376" s="58"/>
+      <c r="B376" s="58"/>
+      <c r="C376" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D376" s="36"/>
+      <c r="E376" s="36"/>
+      <c r="F376" s="36"/>
+      <c r="G376" s="36"/>
+    </row>
+    <row r="377" spans="1:10" hidden="1" outlineLevel="1">
+      <c r="A377" s="59"/>
+      <c r="B377" s="59"/>
+      <c r="C377" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D377" s="76">
+        <f>1200-50-400-130-100-100</f>
+        <v>420</v>
+      </c>
+      <c r="E377" s="36"/>
+      <c r="F377" s="36"/>
+      <c r="G377" s="36"/>
+    </row>
+    <row r="378" spans="1:10" ht="17" hidden="1" outlineLevel="1" thickBot="1">
+      <c r="A378" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B378" s="61">
+        <f>SUM(B353:B371)</f>
+        <v>10720</v>
+      </c>
+      <c r="C378" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D378" s="62">
+        <f>SUM(D353:D377)</f>
+        <v>10720</v>
+      </c>
+      <c r="E378" s="36"/>
+      <c r="F378" s="36"/>
+      <c r="G378" s="36"/>
+    </row>
+    <row r="379" spans="1:10" collapsed="1">
+      <c r="A379" s="74"/>
+      <c r="B379" s="74"/>
+      <c r="C379" s="74"/>
+      <c r="D379" s="74"/>
+      <c r="E379" s="74"/>
+      <c r="F379" s="74"/>
+      <c r="G379" s="74"/>
+    </row>
+    <row r="380" spans="1:10">
+      <c r="A380" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B380" s="67"/>
+      <c r="C380" s="67"/>
+      <c r="D380" s="67"/>
+      <c r="E380" s="67"/>
+      <c r="F380" s="67"/>
+      <c r="G380" s="67"/>
+    </row>
+    <row r="381" spans="1:10" ht="17" outlineLevel="1" thickBot="1">
+      <c r="A381" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B381" s="65"/>
+      <c r="C381" s="65"/>
+      <c r="D381" s="65"/>
+      <c r="E381" s="36"/>
+      <c r="F381" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G381" s="37"/>
+      <c r="I381" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="J381" s="85"/>
+    </row>
+    <row r="382" spans="1:10" outlineLevel="1">
+      <c r="A382" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B382" s="39"/>
+      <c r="C382" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D382" s="40"/>
+      <c r="E382" s="36"/>
+      <c r="F382" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G382" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I382" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="J382" s="89"/>
+    </row>
+    <row r="383" spans="1:10" outlineLevel="1">
+      <c r="A383" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B383" s="35"/>
+      <c r="C383" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D383" s="42"/>
+      <c r="E383" s="36"/>
+      <c r="F383" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G383" s="77">
+        <v>4300</v>
+      </c>
+      <c r="I383" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="J383" s="90">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" outlineLevel="1">
+      <c r="A384" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B384" s="32">
+        <f>2450-1600+3000-150-50-400-130-100-100-1200</f>
+        <v>1720</v>
+      </c>
+      <c r="C384" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" s="42">
+        <v>5100</v>
+      </c>
+      <c r="E384" s="36"/>
+      <c r="F384" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="G384" s="77">
+        <v>3100</v>
+      </c>
+      <c r="I384" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="J384" s="90"/>
+    </row>
+    <row r="385" spans="1:10" outlineLevel="1">
+      <c r="A385" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B385" s="35">
+        <v>1300</v>
+      </c>
+      <c r="C385" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D385" s="42">
+        <f>2400-1600</f>
+        <v>800</v>
+      </c>
+      <c r="E385" s="36"/>
+      <c r="F385" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G385" s="77"/>
+      <c r="I385" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="J385" s="90"/>
+    </row>
+    <row r="386" spans="1:10" outlineLevel="1">
+      <c r="A386" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" s="35"/>
+      <c r="C386" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D386" s="33"/>
+      <c r="E386" s="36"/>
+      <c r="F386" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="G386" s="77">
+        <v>250</v>
+      </c>
+      <c r="I386" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="J386" s="90">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" outlineLevel="1">
+      <c r="A387" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B387" s="35">
+        <v>150</v>
+      </c>
+      <c r="C387" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D387" s="42"/>
+      <c r="E387" s="36"/>
+      <c r="F387" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G387" s="77">
+        <f>50+150</f>
+        <v>200</v>
+      </c>
+      <c r="I387" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="J387" s="90">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" outlineLevel="1">
+      <c r="A388" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B388" s="35">
+        <f>3600-3100</f>
+        <v>500</v>
+      </c>
+      <c r="C388" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D388" s="42"/>
+      <c r="E388" s="36"/>
+      <c r="F388" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="G388" s="77">
+        <v>130</v>
+      </c>
+      <c r="I388" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="J388" s="90">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" outlineLevel="1">
+      <c r="A389" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B389" s="35"/>
+      <c r="C389" s="44"/>
+      <c r="D389" s="42"/>
+      <c r="E389" s="36"/>
+      <c r="F389" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G389" s="77"/>
+      <c r="I389" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="J389" s="90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" ht="17" outlineLevel="1" thickBot="1">
+      <c r="A390" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B390" s="46"/>
+      <c r="C390" s="47"/>
+      <c r="D390" s="48"/>
+      <c r="E390" s="36"/>
+      <c r="F390" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="G390" s="77"/>
+      <c r="I390" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="J390" s="90">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" outlineLevel="1">
+      <c r="A391" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B391" s="35"/>
+      <c r="C391" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D391" s="42"/>
+      <c r="E391" s="36"/>
+      <c r="F391" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G391" s="77"/>
+      <c r="I391" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="J391" s="90">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" outlineLevel="1">
+      <c r="A392" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B392" s="50"/>
+      <c r="C392" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D392" s="51"/>
+      <c r="E392" s="36"/>
+      <c r="F392" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="G392" s="77"/>
+      <c r="I392" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="J392" s="90">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" outlineLevel="1">
+      <c r="A393" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B393" s="35">
+        <v>5700</v>
+      </c>
+      <c r="C393" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D393" s="42"/>
+      <c r="E393" s="36"/>
+      <c r="F393" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="G393" s="77"/>
+      <c r="I393" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="J393" s="91"/>
+    </row>
+    <row r="394" spans="1:10" outlineLevel="1">
+      <c r="A394" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B394" s="35">
+        <v>150</v>
+      </c>
+      <c r="C394" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D394" s="42"/>
+      <c r="E394" s="36"/>
+      <c r="F394" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G394" s="77"/>
+      <c r="I394" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="J394" s="90"/>
+    </row>
+    <row r="395" spans="1:10" outlineLevel="1">
+      <c r="A395" s="41"/>
+      <c r="B395" s="35"/>
+      <c r="C395" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D395" s="42"/>
+      <c r="E395" s="36"/>
+      <c r="F395" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="G395" s="77"/>
+      <c r="I395" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="J395" s="90"/>
+    </row>
+    <row r="396" spans="1:10" outlineLevel="1">
+      <c r="A396" s="44"/>
+      <c r="B396" s="35"/>
+      <c r="C396" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D396" s="42"/>
+      <c r="E396" s="36"/>
+      <c r="F396" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G396" s="77"/>
+      <c r="I396" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="J396" s="90"/>
+    </row>
+    <row r="397" spans="1:10" outlineLevel="1">
+      <c r="A397" s="44"/>
+      <c r="B397" s="35"/>
+      <c r="C397" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D397" s="42"/>
+      <c r="E397" s="36"/>
+      <c r="F397" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="G397" s="77">
+        <v>100</v>
+      </c>
+      <c r="I397" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="J397" s="90"/>
+    </row>
+    <row r="398" spans="1:10" ht="17" outlineLevel="1" thickBot="1">
+      <c r="A398" s="44"/>
+      <c r="B398" s="35"/>
+      <c r="C398" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D398" s="42"/>
+      <c r="E398" s="36"/>
+      <c r="F398" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="G398" s="82">
+        <f>G383-SUM(G384:G389)-G397</f>
+        <v>520</v>
+      </c>
+      <c r="I398" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="J398" s="90"/>
+    </row>
+    <row r="399" spans="1:10" outlineLevel="1">
+      <c r="A399" s="44"/>
+      <c r="B399" s="35"/>
+      <c r="C399" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D399" s="42"/>
+      <c r="E399" s="36"/>
+      <c r="F399" s="36"/>
+      <c r="G399" s="36"/>
+      <c r="I399" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="J399" s="90">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" outlineLevel="1">
+      <c r="A400" s="44"/>
+      <c r="B400" s="35"/>
+      <c r="C400" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D400" s="42"/>
+      <c r="E400" s="36"/>
+      <c r="F400" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G400" s="92">
+        <f>(G383-G384)/G383</f>
+        <v>0.27906976744186046</v>
+      </c>
+      <c r="I400" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="J400" s="90"/>
+    </row>
+    <row r="401" spans="1:10" outlineLevel="1">
+      <c r="A401" s="52"/>
+      <c r="B401" s="53"/>
+      <c r="C401" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D401" s="55"/>
+      <c r="E401" s="36"/>
+      <c r="F401" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G401" s="92">
+        <f>G398/G383</f>
+        <v>0.12093023255813953</v>
+      </c>
+      <c r="I401" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="J401" s="90"/>
+    </row>
+    <row r="402" spans="1:10" outlineLevel="1">
+      <c r="A402" s="56"/>
+      <c r="B402" s="56"/>
+      <c r="C402" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D402" s="36"/>
+      <c r="E402" s="36"/>
+      <c r="F402" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="G402" s="36"/>
+      <c r="I402" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="J402" s="90">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" outlineLevel="1">
+      <c r="A403" s="58"/>
+      <c r="B403" s="58"/>
+      <c r="C403" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D403" s="36">
+        <v>3200</v>
+      </c>
+      <c r="E403" s="36"/>
+      <c r="F403" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="G403" s="36"/>
+      <c r="I403" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="J403" s="90">
+        <v>-5850</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" outlineLevel="1">
+      <c r="A404" s="58"/>
+      <c r="B404" s="58"/>
+      <c r="C404" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D404" s="36"/>
+      <c r="E404" s="36"/>
+      <c r="F404" s="36"/>
+      <c r="G404" s="36"/>
+      <c r="I404" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="J404" s="91"/>
+    </row>
+    <row r="405" spans="1:10" outlineLevel="1">
+      <c r="A405" s="58"/>
+      <c r="B405" s="58"/>
+      <c r="C405" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D405" s="36"/>
+      <c r="E405" s="36"/>
+      <c r="F405" s="36"/>
+      <c r="G405" s="36"/>
+      <c r="I405" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J405" s="90">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" outlineLevel="1">
+      <c r="A406" s="59"/>
+      <c r="B406" s="59"/>
+      <c r="C406" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D406" s="76">
+        <f>1200-50-400-130-100-100</f>
+        <v>420</v>
+      </c>
+      <c r="E406" s="36"/>
+      <c r="F406" s="36"/>
+      <c r="G406" s="36"/>
+      <c r="I406" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="J406" s="90">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" ht="17" outlineLevel="1" thickBot="1">
+      <c r="A407" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B407" s="61">
+        <f>SUM(B382:B400)</f>
+        <v>9520</v>
+      </c>
+      <c r="C407" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D407" s="62">
+        <f>SUM(D382:D406)</f>
+        <v>9520</v>
+      </c>
+      <c r="E407" s="36"/>
+      <c r="F407" s="36"/>
+      <c r="G407" s="36"/>
+      <c r="I407" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="J407" s="90"/>
+    </row>
+    <row r="408" spans="1:10" outlineLevel="1">
+      <c r="A408" s="74"/>
+      <c r="B408" s="74"/>
+      <c r="C408" s="74"/>
+      <c r="D408" s="74"/>
+      <c r="E408" s="74"/>
+      <c r="F408" s="74"/>
+      <c r="G408" s="74"/>
+      <c r="I408" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="J408" s="90">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" outlineLevel="1">
+      <c r="I409" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="J409" s="90"/>
+    </row>
+    <row r="410" spans="1:10" outlineLevel="1">
+      <c r="I410" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="J410" s="90">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" outlineLevel="1">
+      <c r="I411" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="J411" s="90"/>
+    </row>
+    <row r="412" spans="1:10" outlineLevel="1">
+      <c r="I412" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="J412" s="90">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" outlineLevel="1">
+      <c r="I413" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="J413" s="90">
+        <v>8070</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" outlineLevel="1">
+      <c r="I414" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="J414" s="90"/>
+    </row>
+    <row r="415" spans="1:10" outlineLevel="1">
+      <c r="I415" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="J415" s="90">
+        <v>1720</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="45">
+    <mergeCell ref="I381:J381"/>
+    <mergeCell ref="I382:J382"/>
+    <mergeCell ref="I393:J393"/>
+    <mergeCell ref="I404:J404"/>
+    <mergeCell ref="A352:D352"/>
+    <mergeCell ref="A379:G379"/>
+    <mergeCell ref="A351:G351"/>
+    <mergeCell ref="A381:D381"/>
+    <mergeCell ref="A408:G408"/>
+    <mergeCell ref="A380:G380"/>
+    <mergeCell ref="A294:D294"/>
+    <mergeCell ref="A321:G321"/>
+    <mergeCell ref="A293:G293"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A350:G350"/>
+    <mergeCell ref="A322:G322"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A263:G263"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="A235:G235"/>
+    <mergeCell ref="A265:D265"/>
+    <mergeCell ref="A292:G292"/>
+    <mergeCell ref="A264:G264"/>
     <mergeCell ref="A178:D178"/>
     <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A234:D234"/>
     <mergeCell ref="A120:D120"/>
     <mergeCell ref="A147:D147"/>
     <mergeCell ref="A119:D119"/>
